--- a/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
@@ -511,16 +511,16 @@
         <v>21.83333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1051556029172659</v>
+        <v>72.10000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1195448219701946</v>
+        <v>19.493</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9008955458747633</v>
+        <v>173.1113333333334</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1325800643462355</v>
+        <v>7962.66</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>18.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1008256208218533</v>
+        <v>71.36666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1119394662479651</v>
+        <v>19.18566666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8420941397909636</v>
+        <v>164.5958333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1364564218715721</v>
+        <v>8015.784666666666</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +587,16 @@
         <v>18.84444444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1343547532334054</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1660725184216208</v>
+        <v>21.18488888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8566857835857212</v>
+        <v>166.4468888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2154344405413319</v>
+        <v>8970.806666666665</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         <v>18.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1674468420175559</v>
+        <v>81.26666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.204921401135277</v>
+        <v>22.43133333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9235967190134619</v>
+        <v>177.5133333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2750876219955141</v>
+        <v>9596.530000000001</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         <v>18.93333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1616904710340721</v>
+        <v>80.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1927859005985179</v>
+        <v>22.05383333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8266919369277302</v>
+        <v>162.7735</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2378886563047014</v>
+        <v>9212.772500000001</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>18.53333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1570058980251874</v>
+        <v>79.86666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1863626526142912</v>
+        <v>21.85</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8387373267259473</v>
+        <v>164.188</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2406408813631539</v>
+        <v>9241.831333333334</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +739,16 @@
         <v>19.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.127638169605928</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1715734559495105</v>
+        <v>21.36866666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9106149635548003</v>
+        <v>174.8841666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2481317661435941</v>
+        <v>9320.332166666667</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +777,16 @@
         <v>18.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06996859400115976</v>
+        <v>65.51666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07539451076792344</v>
+        <v>17.512</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8726483906500151</v>
+        <v>168.6416666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09901772603361121</v>
+        <v>7461.972500000001</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +815,16 @@
         <v>26.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02567134410970457</v>
+        <v>53</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02979406839430401</v>
+        <v>14.43733333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9586250626105273</v>
+        <v>187.152</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04365174729735757</v>
+        <v>6331.017333333333</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         <v>18.13333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03451531527210325</v>
+        <v>56.26666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>0.039725103704123</v>
+        <v>15.288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9163607508975238</v>
+        <v>176.0066666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05337279124079833</v>
+        <v>6578.642</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>18.96666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0535271695795076</v>
+        <v>61.73333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05504359685290218</v>
+        <v>16.356</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7907277459903458</v>
+        <v>158.9271666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06976933360847035</v>
+        <v>6936.520666666666</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +929,16 @@
         <v>19.68888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04226576518659762</v>
+        <v>58.68888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04073126976185821</v>
+        <v>15.36577777777778</v>
       </c>
       <c r="I13" t="n">
-        <v>0.789353336218677</v>
+        <v>158.7895555555556</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04578838614545747</v>
+        <v>6388.380888888889</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +967,16 @@
         <v>18.75555555555556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03491488787184395</v>
+        <v>56.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03887041518441595</v>
+        <v>15.22088888888889</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8926815122238397</v>
+        <v>171.7182222222222</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04780970453337414</v>
+        <v>6441.018666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08999069894886425</v>
+        <v>69.45</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1181513831458438</v>
+        <v>19.4375</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8941072809671082</v>
+        <v>171.9538333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1755032252331093</v>
+        <v>8513.187333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1043,16 +1043,16 @@
         <v>18.97777777777778</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09458414572869724</v>
+        <v>70.27777777777777</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1103778734672941</v>
+        <v>19.12116666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8517255017835894</v>
+        <v>165.8025555555555</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1519496324183691</v>
+        <v>8220.671444444444</v>
       </c>
     </row>
     <row r="17">
@@ -1081,16 +1081,16 @@
         <v>16.66666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02977928695837662</v>
+        <v>54.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03421845161793128</v>
+        <v>14.837</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9513053444121717</v>
+        <v>184.6796666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04936794412529028</v>
+        <v>6480.5925</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1119,16 @@
         <v>18.93333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03758825357951921</v>
+        <v>57.26666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04459838851784121</v>
+        <v>15.65333333333333</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8309500326991165</v>
+        <v>163.2651666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07119752243112625</v>
+        <v>6965.030833333333</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>17.66666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02649260941867137</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02833227451704656</v>
+        <v>14.29633333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8837818820030237</v>
+        <v>170.3006666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04041251815249332</v>
+        <v>6240.318666666666</v>
       </c>
     </row>
     <row r="20">
@@ -1195,16 +1195,16 @@
         <v>19.8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3101390215765218</v>
+        <v>97.83333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3948282398035071</v>
+        <v>27.66583333333334</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7995362499404215</v>
+        <v>159.824</v>
       </c>
       <c r="J20" t="n">
-        <v>0.500444350651794</v>
+        <v>11757.78466666667</v>
       </c>
     </row>
     <row r="21">
@@ -1233,16 +1233,16 @@
         <v>20.93333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3331335895184128</v>
+        <v>100.2666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3725257136363249</v>
+        <v>27.082</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5680763427872729</v>
+        <v>141.2246666666666</v>
       </c>
       <c r="J21" t="n">
-        <v>0.417356267005997</v>
+        <v>10966.63866666667</v>
       </c>
     </row>
     <row r="22">
@@ -1271,16 +1271,16 @@
         <v>20.13333333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3536652773145281</v>
+        <v>102.4166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4490854599596328</v>
+        <v>29.08683333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8422438256983195</v>
+        <v>164.6141666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5522712086701644</v>
+        <v>12267.88216666667</v>
       </c>
     </row>
     <row r="23">
@@ -1309,16 +1309,16 @@
         <v>20.33333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3472814129182905</v>
+        <v>101.75</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4532886077452964</v>
+        <v>29.1975</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8771156776655806</v>
+        <v>169.2933333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5728843933703812</v>
+        <v>12476.80916666667</v>
       </c>
     </row>
     <row r="24">
@@ -1347,16 +1347,16 @@
         <v>20.9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5069670040392835</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6088471284231274</v>
+        <v>33.50333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8054434415554057</v>
+        <v>160.4406666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7142987288194953</v>
+        <v>14075.31883333333</v>
       </c>
     </row>
     <row r="25">
@@ -1385,16 +1385,16 @@
         <v>23.06666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3746542225588751</v>
+        <v>104.6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.504731479613876</v>
+        <v>30.56733333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8673707997230322</v>
+        <v>167.894</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6163193694570812</v>
+        <v>12932.40866666667</v>
       </c>
     </row>
     <row r="26">
@@ -1423,16 +1423,16 @@
         <v>20.93333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.179232714038409</v>
+        <v>82.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2174139417071008</v>
+        <v>22.81066666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8283508103889481</v>
+        <v>162.964</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2839144855216446</v>
+        <v>9685.138666666668</v>
       </c>
     </row>
     <row r="27">
@@ -1461,16 +1461,16 @@
         <v>19.3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2481556660187627</v>
+        <v>91.05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3081341967077877</v>
+        <v>25.37366666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8847360574581322</v>
+        <v>170.4485</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3984549430137369</v>
+        <v>10788.2825</v>
       </c>
     </row>
     <row r="28">
@@ -1499,16 +1499,16 @@
         <v>20.4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2896448690406562</v>
+        <v>95.63333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3515821394469713</v>
+        <v>26.53133333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8498464654697918</v>
+        <v>165.5626666666667</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4480350419109884</v>
+        <v>11256.62216666667</v>
       </c>
     </row>
     <row r="29">
@@ -1537,16 +1537,16 @@
         <v>20.16666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2571957709112422</v>
+        <v>92.06666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3154099539068793</v>
+        <v>25.5695</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7324105025659414</v>
+        <v>153.5388333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3845047448178162</v>
+        <v>10656.50133333333</v>
       </c>
     </row>
     <row r="30">
@@ -1575,16 +1575,16 @@
         <v>19.4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1964780474089414</v>
+        <v>84.96666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2224377715821035</v>
+        <v>22.96083333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7579947948010162</v>
+        <v>155.7995</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2857893091612947</v>
+        <v>9703.857833333333</v>
       </c>
     </row>
     <row r="31">
@@ -1613,16 +1613,16 @@
         <v>20.13333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3348774995786311</v>
+        <v>100.45</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3973844259910733</v>
+        <v>27.73266666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8444887411380562</v>
+        <v>164.8906666666667</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4889212388481104</v>
+        <v>11646.63833333333</v>
       </c>
     </row>
     <row r="32">
@@ -1651,16 +1651,16 @@
         <v>20.13333333333334</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2021899933433287</v>
+        <v>85.66666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2587057664364207</v>
+        <v>24.01133333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9258662670437867</v>
+        <v>178.01</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3356549929572085</v>
+        <v>10191.37066666667</v>
       </c>
     </row>
     <row r="33">
@@ -1689,16 +1689,16 @@
         <v>19.77777777777778</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2491878444430982</v>
+        <v>91.16666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2924326822171894</v>
+        <v>24.9475</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7688965585614037</v>
+        <v>156.8086111111111</v>
       </c>
       <c r="J33" t="n">
-        <v>0.363293056241231</v>
+        <v>10455.46388888889</v>
       </c>
     </row>
     <row r="34">
@@ -1727,16 +1727,16 @@
         <v>20.03333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2761730364055606</v>
+        <v>94.16666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3172358736962578</v>
+        <v>25.6185</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7001372317587105</v>
+        <v>150.8651666666667</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3794309080766546</v>
+        <v>10608.5025</v>
       </c>
     </row>
     <row r="35">
@@ -1765,16 +1765,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1828024661009756</v>
+        <v>83.25555555555555</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2181694741350847</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7374395722765654</v>
+        <v>153.9723333333334</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3038140209597961</v>
+        <v>9882.199666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1803,16 +1803,16 @@
         <v>21</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2069999799161885</v>
+        <v>86.25</v>
       </c>
       <c r="H36" t="n">
-        <v>0.264160229860642</v>
+        <v>24.165</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8582798681993471</v>
+        <v>166.6575</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3478657533859913</v>
+        <v>10308.43083333333</v>
       </c>
     </row>
     <row r="37">
@@ -1841,16 +1841,16 @@
         <v>22.66666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09063014963516862</v>
+        <v>69.56666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1082151082100739</v>
+        <v>19.031</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8520678115660016</v>
+        <v>165.8465</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1392859723044493</v>
+        <v>8054.064833333334</v>
       </c>
     </row>
     <row r="38">
@@ -1879,16 +1879,16 @@
         <v>18.57777777777778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9178408181744215</v>
+        <v>187.2888888888889</v>
       </c>
       <c r="H38" t="n">
-        <v>0.877242063248668</v>
+        <v>44.66955555555555</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1981378817535263</v>
+        <v>115.7246666666667</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8376212016539579</v>
+        <v>15974.93488888889</v>
       </c>
     </row>
     <row r="39">
@@ -1917,16 +1917,16 @@
         <v>21.63333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9487490900922193</v>
+        <v>201.6166666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9738741599361991</v>
+        <v>56.2995</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5863082652180739</v>
+        <v>142.4715</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9854622317959957</v>
+        <v>22304.24533333334</v>
       </c>
     </row>
     <row r="40">
@@ -1955,16 +1955,16 @@
         <v>21.53333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9100906542652568</v>
+        <v>184.45</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9239580452025791</v>
+        <v>48.51499999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5212216288851524</v>
+        <v>138.0918333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9318806155490129</v>
+        <v>18479.82416666667</v>
       </c>
     </row>
     <row r="41">
@@ -1993,16 +1993,16 @@
         <v>20.08888888888889</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8483169682825347</v>
+        <v>167.15</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8562525837785624</v>
+        <v>43.33305555555555</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7161033384347447</v>
+        <v>152.1657777777778</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8909516469156384</v>
+        <v>17169.45155555556</v>
       </c>
     </row>
     <row r="42">
@@ -2031,16 +2031,16 @@
         <v>21.8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9112191474280428</v>
+        <v>184.85</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9253086010670126</v>
+        <v>48.65366666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3763225177059586</v>
+        <v>128.6311666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9469148079538894</v>
+        <v>19140.04683333333</v>
       </c>
     </row>
     <row r="43">
@@ -2069,16 +2069,16 @@
         <v>19.36666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9311040893138591</v>
+        <v>192.7333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9392304317857788</v>
+        <v>50.22666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4998133377222578</v>
+        <v>136.685</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9492836106293856</v>
+        <v>19258.72233333333</v>
       </c>
     </row>
     <row r="44">
@@ -2107,16 +2107,16 @@
         <v>21.13333333333334</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9262268918834664</v>
+        <v>190.6333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9481668344502626</v>
+        <v>51.41266666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5407929995140185</v>
+        <v>139.3898333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>0.960457148636655</v>
+        <v>19894.96166666667</v>
       </c>
     </row>
     <row r="45">
@@ -2145,16 +2145,16 @@
         <v>22.33333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7227238832731497</v>
+        <v>144.6888888888889</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7181888706055668</v>
+        <v>37.06788888888889</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5196091297494008</v>
+        <v>137.9854444444444</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7196881466441498</v>
+        <v>14144.708</v>
       </c>
     </row>
     <row r="46">
@@ -2183,16 +2183,16 @@
         <v>18.9</v>
       </c>
       <c r="G46" t="n">
-        <v>0.788590639933111</v>
+        <v>155.2166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8168358199825894</v>
+        <v>41.197</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5652871141054036</v>
+        <v>141.0355</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8693037400946622</v>
+        <v>16637.5825</v>
       </c>
     </row>
     <row r="47">
@@ -2221,16 +2221,16 @@
         <v>19.86666666666667</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8211157596479248</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8503188193630522</v>
+        <v>42.984</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5654224084901635</v>
+        <v>141.0446666666666</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8832928340934858</v>
+        <v>16972.12866666667</v>
       </c>
     </row>
     <row r="48">
@@ -2259,16 +2259,16 @@
         <v>18.83333333333333</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8530699973727861</v>
+        <v>168.25</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8761660031915625</v>
+        <v>44.59666666666666</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5248019307250974</v>
+        <v>138.3283333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9143588429256182</v>
+        <v>17854.01333333333</v>
       </c>
     </row>
     <row r="49">
@@ -2297,16 +2297,16 @@
         <v>20.11111111111111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8830487582716038</v>
+        <v>175.9444444444444</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9026229844242294</v>
+        <v>46.565</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4712593728115779</v>
+        <v>134.8227777777778</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9382968254297008</v>
+        <v>18744.25333333333</v>
       </c>
     </row>
     <row r="50">
@@ -2335,16 +2335,16 @@
         <v>18.63333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7582658170912677</v>
+        <v>150.1166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8142180190674251</v>
+        <v>41.06833333333334</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8599182981300583</v>
+        <v>166.8758333333333</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8635841293498554</v>
+        <v>16509.1255</v>
       </c>
     </row>
     <row r="51">
@@ -2373,16 +2373,16 @@
         <v>21.3</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8130905677614473</v>
+        <v>159.75</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7954374100978593</v>
+        <v>40.1835</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2863511072655152</v>
+        <v>122.4906666666667</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7653314124469501</v>
+        <v>14771.67483333333</v>
       </c>
     </row>
     <row r="52">
@@ -2411,16 +2411,16 @@
         <v>19.82222222222222</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8232101398107761</v>
+        <v>161.7555555555556</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8469646548636648</v>
+        <v>42.79155555555555</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6256373534032775</v>
+        <v>145.2344444444444</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8975000719127446</v>
+        <v>17347.48088888889</v>
       </c>
     </row>
     <row r="53">
@@ -2449,16 +2449,16 @@
         <v>18.1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8478788443642767</v>
+        <v>167.05</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8711790549593345</v>
+        <v>44.2655</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1855110200068034</v>
+        <v>114.6476666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9243713237494575</v>
+        <v>18196.44783333334</v>
       </c>
     </row>
     <row r="54">
@@ -2487,16 +2487,16 @@
         <v>22.5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8664160847902377</v>
+        <v>171.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9215286496763788</v>
+        <v>48.27083333333334</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6855138851511536</v>
+        <v>149.7075</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9375548654265121</v>
+        <v>18712.48416666667</v>
       </c>
     </row>
     <row r="55">
@@ -2525,16 +2525,16 @@
         <v>19.4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8529514607740514</v>
+        <v>168.2222222222222</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8672883635410036</v>
+        <v>44.01433333333333</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4427741498873357</v>
+        <v>132.9725</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8908626015646743</v>
+        <v>17167.09255555556</v>
       </c>
     </row>
     <row r="56">
@@ -2563,16 +2563,16 @@
         <v>23.6</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9541238317930935</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0.96589973730189</v>
+        <v>54.438</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3697452395109668</v>
+        <v>128.196</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9555393454118803</v>
+        <v>19597.47133333333</v>
       </c>
     </row>
     <row r="57">
@@ -2601,16 +2601,16 @@
         <v>21</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9219501856050371</v>
+        <v>188.8888888888889</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9133760658721215</v>
+        <v>47.49638888888889</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1990171334639574</v>
+        <v>115.7983333333333</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8848573555116357</v>
+        <v>17011.55166666667</v>
       </c>
     </row>
     <row r="58">
@@ -2639,16 +2639,16 @@
         <v>24.9</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9220199316503215</v>
+        <v>188.9166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0.934064967205096</v>
+        <v>49.6095</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4881040190325728</v>
+        <v>135.9198333333333</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9077697000858397</v>
+        <v>17646.813</v>
       </c>
     </row>
     <row r="59">
@@ -2677,16 +2677,16 @@
         <v>19.42222222222222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8813870616310969</v>
+        <v>175.4777777777778</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8593720681621129</v>
+        <v>43.52122222222223</v>
       </c>
       <c r="I59" t="n">
-        <v>0.131040050483341</v>
+        <v>109.4637777777778</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8100353053030513</v>
+        <v>15475.89277777778</v>
       </c>
     </row>
     <row r="60">
@@ -2715,16 +2715,16 @@
         <v>19.46666666666667</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9355559024307678</v>
+        <v>194.7666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9392075532045088</v>
+        <v>50.22383333333334</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2687943373790959</v>
+        <v>121.224</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9336670414800121</v>
+        <v>18551.19733333333</v>
       </c>
     </row>
     <row r="61">
@@ -2753,16 +2753,16 @@
         <v>26.66666666666667</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9187842201668575</v>
+        <v>187.65</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9400623351285772</v>
+        <v>50.33033333333333</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4286719828872975</v>
+        <v>132.0563333333333</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9173917777863232</v>
+        <v>17953.9655</v>
       </c>
     </row>
     <row r="62">
@@ -2791,16 +2791,16 @@
         <v>21.46666666666667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9380631530026756</v>
+        <v>195.9666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9229329831771647</v>
+        <v>48.41116666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3655378064273083</v>
+        <v>127.9168333333333</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8956889132768577</v>
+        <v>17297.31716666666</v>
       </c>
     </row>
     <row r="63">
@@ -2829,16 +2829,16 @@
         <v>20.7</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8858138396181889</v>
+        <v>176.7333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8785179868635548</v>
+        <v>44.75666666666667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3207807457732165</v>
+        <v>124.8978333333333</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8495589503015455</v>
+        <v>16211.46766666667</v>
       </c>
     </row>
     <row r="64">
@@ -2867,16 +2867,16 @@
         <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8940016420236903</v>
+        <v>179.1666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8949551755187749</v>
+        <v>45.95266666666667</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3634190082042836</v>
+        <v>127.776</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8871147528828429</v>
+        <v>17069.2175</v>
       </c>
     </row>
     <row r="65">
@@ -2905,16 +2905,16 @@
         <v>21.63333333333334</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9120575509089893</v>
+        <v>185.15</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9157120075489642</v>
+        <v>47.71166666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>0.409404440642489</v>
+        <v>130.8016666666666</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8962666101491517</v>
+        <v>17313.23833333333</v>
       </c>
     </row>
     <row r="66">
@@ -2943,16 +2943,16 @@
         <v>20.33333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8929099855836512</v>
+        <v>178.8333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8836286402400906</v>
+        <v>45.11333333333334</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2196653892068082</v>
+        <v>117.4841666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8670436710200807</v>
+        <v>16586.2925</v>
       </c>
     </row>
     <row r="67">
@@ -2981,16 +2981,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8874237506398042</v>
+        <v>177.2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8903046342158509</v>
+        <v>45.59933333333333</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2926489549841067</v>
+        <v>122.938</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8655299612582095</v>
+        <v>16552.332</v>
       </c>
     </row>
     <row r="68">
@@ -3019,16 +3019,16 @@
         <v>19</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8883351708327225</v>
+        <v>177.4666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8879452528769722</v>
+        <v>45.42483333333333</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3457576201613348</v>
+        <v>126.5948333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8834449930206569</v>
+        <v>16975.94366666667</v>
       </c>
     </row>
     <row r="69">
@@ -3057,16 +3057,16 @@
         <v>20.4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8800275893575419</v>
+        <v>175.1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8634765071079289</v>
+        <v>43.774</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2196089595319868</v>
+        <v>117.4796666666667</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8268919862007761</v>
+        <v>15773.64083333333</v>
       </c>
     </row>
     <row r="70">
@@ -3095,16 +3095,16 @@
         <v>21.76666666666667</v>
       </c>
       <c r="G70" t="n">
-        <v>0.899943485025844</v>
+        <v>181.0333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8951144766862928</v>
+        <v>45.965</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1926923339629901</v>
+        <v>115.2646666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8603406289824791</v>
+        <v>16438.19133333333</v>
       </c>
     </row>
     <row r="71">
@@ -3133,16 +3133,16 @@
         <v>21.76666666666667</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9046114550370434</v>
+        <v>182.5666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9056699189446955</v>
+        <v>46.81966666666667</v>
       </c>
       <c r="I71" t="n">
-        <v>0.249909267757742</v>
+        <v>119.8245</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8884877265943301</v>
+        <v>17104.75683333333</v>
       </c>
     </row>
     <row r="72">
@@ -3171,16 +3171,16 @@
         <v>19.46666666666667</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8777195639836266</v>
+        <v>174.4666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8485687546680686</v>
+        <v>42.88316666666666</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1186664334200001</v>
+        <v>108.116</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7980891453881667</v>
+        <v>15276.7295</v>
       </c>
     </row>
     <row r="73">
@@ -3209,16 +3209,16 @@
         <v>21.13333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7215409101292126</v>
+        <v>144.5166666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.668762802562294</v>
+        <v>35.36966666666667</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3590143351932134</v>
+        <v>127.4826666666667</v>
       </c>
       <c r="J73" t="n">
-        <v>0.642548711823244</v>
+        <v>13220.12483333333</v>
       </c>
     </row>
     <row r="74">
@@ -3247,16 +3247,16 @@
         <v>19.42222222222222</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6588849324264541</v>
+        <v>136</v>
       </c>
       <c r="H74" t="n">
-        <v>0.47995813969291</v>
+        <v>29.90355555555556</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01772427063907047</v>
+        <v>88.87355555555554</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2524050456446583</v>
+        <v>9364.746444444443</v>
       </c>
     </row>
     <row r="75">
@@ -3285,16 +3285,16 @@
         <v>17.06666666666667</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6290846589494801</v>
+        <v>132.2833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5468105164799207</v>
+        <v>31.71983333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05573059981714062</v>
+        <v>99.2355</v>
       </c>
       <c r="J75" t="n">
-        <v>0.4695471464431625</v>
+        <v>11461.109</v>
       </c>
     </row>
     <row r="76">
@@ -3323,16 +3323,16 @@
         <v>16.84444444444444</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4293329360138029</v>
+        <v>110.2666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2729263313115344</v>
+        <v>24.41</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0382032672728498</v>
+        <v>95.49399999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1492727278151393</v>
+        <v>8186.059777777778</v>
       </c>
     </row>
     <row r="77">
@@ -3361,16 +3361,16 @@
         <v>19.36666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4748014404677081</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3153540917335684</v>
+        <v>25.568</v>
       </c>
       <c r="I77" t="n">
-        <v>0.08892405058975637</v>
+        <v>104.4635</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1813646717742962</v>
+        <v>8583.036833333334</v>
       </c>
     </row>
     <row r="78">
@@ -3399,16 +3399,16 @@
         <v>17.73333333333333</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6554845313642967</v>
+        <v>135.5666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5169192154678337</v>
+        <v>30.8975</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04290371668317031</v>
+        <v>96.60416666666667</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3651788476501932</v>
+        <v>10473.38233333333</v>
       </c>
     </row>
     <row r="79">
@@ -3437,16 +3437,16 @@
         <v>18.53333333333333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5846707942390049</v>
+        <v>127.0333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4236683889143491</v>
+        <v>28.42</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05794308278191228</v>
+        <v>99.64366666666666</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2846569940006933</v>
+        <v>9692.556333333334</v>
       </c>
     </row>
     <row r="80">
@@ -3475,16 +3475,16 @@
         <v>16.7</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6379175505033301</v>
+        <v>133.3666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4820522964250678</v>
+        <v>29.95933333333334</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01530545520635744</v>
+        <v>87.73066666666666</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3115121652049731</v>
+        <v>9957.5615</v>
       </c>
     </row>
     <row r="81">
@@ -3513,16 +3513,16 @@
         <v>17.1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4897782075803928</v>
+        <v>116.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3083442242831629</v>
+        <v>25.37933333333334</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01372883333528242</v>
+        <v>86.9055</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1395934422187268</v>
+        <v>8058.2</v>
       </c>
     </row>
     <row r="82">
@@ -3551,16 +3551,16 @@
         <v>20.23333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>0.442638678097772</v>
+        <v>111.65</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3059061210984304</v>
+        <v>25.3135</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02503126227386271</v>
+        <v>91.70650000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1664058152888766</v>
+        <v>8402.587333333333</v>
       </c>
     </row>
     <row r="83">
@@ -3589,16 +3589,16 @@
         <v>18.63333333333334</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5120878373412999</v>
+        <v>118.9833333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3654509615848129</v>
+        <v>26.89633333333333</v>
       </c>
       <c r="I83" t="n">
-        <v>0.03553822318348939</v>
+        <v>94.81849999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2186313909550005</v>
+        <v>9005.830833333333</v>
       </c>
     </row>
     <row r="84">
@@ -3627,16 +3627,16 @@
         <v>15.93333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3587818703618911</v>
+        <v>102.95</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2637271113029519</v>
+        <v>24.15283333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>0.106176331061491</v>
+        <v>106.6635</v>
       </c>
       <c r="J84" t="n">
-        <v>0.232320296669501</v>
+        <v>9153.603500000001</v>
       </c>
     </row>
     <row r="85">
@@ -3665,16 +3665,16 @@
         <v>18.42222222222222</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4159416430191706</v>
+        <v>108.8777777777778</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2812393258357884</v>
+        <v>24.64027777777778</v>
       </c>
       <c r="I85" t="n">
-        <v>0.07744077310896513</v>
+        <v>102.8367222222222</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1699879091849486</v>
+        <v>8446.468055555555</v>
       </c>
     </row>
     <row r="86">
@@ -3703,16 +3703,16 @@
         <v>16.76666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5729939351394454</v>
+        <v>125.7</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4180187481357276</v>
+        <v>28.27216666666666</v>
       </c>
       <c r="I86" t="n">
-        <v>0.03174546112442371</v>
+        <v>93.78800000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3087931839392438</v>
+        <v>9930.993833333334</v>
       </c>
     </row>
     <row r="87">
@@ -3741,16 +3741,16 @@
         <v>17.63333333333333</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4751178668153426</v>
+        <v>115.05</v>
       </c>
       <c r="H87" t="n">
-        <v>0.338434722436985</v>
+        <v>26.18366666666667</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1773402385774583</v>
+        <v>113.9301666666667</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2233680757313593</v>
+        <v>9057.355333333333</v>
       </c>
     </row>
     <row r="88">
@@ -3779,16 +3779,16 @@
         <v>18</v>
       </c>
       <c r="G88" t="n">
-        <v>0.50556741810053</v>
+        <v>118.2833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0.268288366200317</v>
+        <v>24.28066666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>0.005736174211448015</v>
+        <v>80.85816666666666</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08482357920094016</v>
+        <v>7220.7835</v>
       </c>
     </row>
     <row r="89">
@@ -3817,16 +3817,16 @@
         <v>15.33333333333333</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5838003128807382</v>
+        <v>126.9333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4191336605012789</v>
+        <v>28.30133333333334</v>
       </c>
       <c r="I89" t="n">
-        <v>0.02180719095326538</v>
+        <v>90.54933333333332</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3069272294649767</v>
+        <v>9912.729999999998</v>
       </c>
     </row>
     <row r="90">
@@ -3855,16 +3855,16 @@
         <v>19.23333333333333</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4678288388888295</v>
+        <v>114.2833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3579393126672735</v>
+        <v>26.69883333333333</v>
       </c>
       <c r="I90" t="n">
-        <v>0.21923920174946</v>
+        <v>117.4501666666667</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2884528095544949</v>
+        <v>9730.3935</v>
       </c>
     </row>
     <row r="91">
@@ -3893,16 +3893,16 @@
         <v>22.32222222222222</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2200872122714298</v>
+        <v>87.81111111111112</v>
       </c>
       <c r="H91" t="n">
-        <v>0.142584457231596</v>
+        <v>20.36555555555556</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2231191231703627</v>
+        <v>117.7585555555556</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1102141830068736</v>
+        <v>7638.298444444445</v>
       </c>
     </row>
     <row r="92">
@@ -3931,16 +3931,16 @@
         <v>22.93333333333333</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5221216613776488</v>
+        <v>120.0666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6068982296253747</v>
+        <v>33.44533333333333</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6165894758757763</v>
+        <v>144.5886666666667</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6143608382145627</v>
+        <v>12911.34333333333</v>
       </c>
     </row>
     <row r="93">
@@ -3969,16 +3969,16 @@
         <v>21.43333333333333</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4544631650853726</v>
+        <v>112.8833333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4951177475586547</v>
+        <v>30.30866666666667</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6081201127373543</v>
+        <v>143.99</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4924926040834928</v>
+        <v>11681.01566666667</v>
       </c>
     </row>
     <row r="94">
@@ -4007,16 +4007,16 @@
         <v>21.16666666666667</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3892830607980671</v>
+        <v>106.1166666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4251199914383829</v>
+        <v>28.458</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5805012399359331</v>
+        <v>142.0723333333333</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4141636266372018</v>
+        <v>10936.513</v>
       </c>
     </row>
     <row r="95">
@@ -4045,16 +4045,16 @@
         <v>21.7</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4971440252771018</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0.547839408476444</v>
+        <v>31.7485</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7251810126313464</v>
+        <v>152.9241666666667</v>
       </c>
       <c r="J95" t="n">
-        <v>0.561248728096773</v>
+        <v>12358.376</v>
       </c>
     </row>
     <row r="96">
@@ -4083,16 +4083,16 @@
         <v>18.73333333333333</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4333447074208001</v>
+        <v>110.6833333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4648934030765004</v>
+        <v>29.50383333333333</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5175267620610309</v>
+        <v>137.8481666666667</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4663301229978452</v>
+        <v>11430.44066666667</v>
       </c>
     </row>
     <row r="97">
@@ -4121,16 +4121,16 @@
         <v>19.46666666666667</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4459984300024131</v>
+        <v>112</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4468045150571828</v>
+        <v>29.02683333333333</v>
       </c>
       <c r="I97" t="n">
-        <v>0.488402887982004</v>
+        <v>135.9393333333333</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4378100894563019</v>
+        <v>11159.82416666667</v>
       </c>
     </row>
     <row r="98">
@@ -4159,16 +4159,16 @@
         <v>20.63333333333333</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4262820284092697</v>
+        <v>109.95</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4644712173354655</v>
+        <v>29.49266666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5197262117887441</v>
+        <v>137.9931666666667</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4554252609987206</v>
+        <v>11326.7255</v>
       </c>
     </row>
     <row r="99">
@@ -4197,16 +4197,16 @@
         <v>20.16666666666667</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3555830698972975</v>
+        <v>102.6166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3613667096101749</v>
+        <v>26.789</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5486418787075991</v>
+        <v>139.9143333333333</v>
       </c>
       <c r="J99" t="n">
-        <v>0.350870889357131</v>
+        <v>10337.1405</v>
       </c>
     </row>
     <row r="100">
@@ -4235,16 +4235,16 @@
         <v>20.93333333333333</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3567023057884124</v>
+        <v>102.7333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3695267573547856</v>
+        <v>27.00333333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5409254893048403</v>
+        <v>139.3986666666667</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3531843374441999</v>
+        <v>10359.218</v>
       </c>
     </row>
     <row r="101">
@@ -4273,16 +4273,16 @@
         <v>19.3</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3253833407994837</v>
+        <v>99.45</v>
       </c>
       <c r="H101" t="n">
-        <v>0.330229491801651</v>
+        <v>25.96566666666667</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4579951026009697</v>
+        <v>133.9608333333333</v>
       </c>
       <c r="J101" t="n">
-        <v>0.329706400409791</v>
+        <v>10134.0795</v>
       </c>
     </row>
     <row r="102">
@@ -4311,16 +4311,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4000650852109788</v>
+        <v>107.2333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4204459117532248</v>
+        <v>28.33566666666667</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5624625558838179</v>
+        <v>140.8443333333333</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4145246901775922</v>
+        <v>10939.91983333333</v>
       </c>
     </row>
     <row r="103">
@@ -4349,16 +4349,16 @@
         <v>21.26666666666667</v>
       </c>
       <c r="G103" t="n">
-        <v>0.327805301427845</v>
+        <v>99.70555555555556</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3370879796609922</v>
+        <v>26.14794444444445</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4471471549114397</v>
+        <v>133.2564444444444</v>
       </c>
       <c r="J103" t="n">
-        <v>0.311605984214249</v>
+        <v>9958.477277777778</v>
       </c>
     </row>
     <row r="104">
@@ -4387,16 +4387,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4227475333481008</v>
+        <v>109.5833333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4351195326733126</v>
+        <v>28.72</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5116414355565129</v>
+        <v>137.4608333333333</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4368681688315096</v>
+        <v>11150.91666666667</v>
       </c>
     </row>
     <row r="105">
@@ -4425,16 +4425,16 @@
         <v>19.73333333333333</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3447319419496961</v>
+        <v>101.4833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3474654072666084</v>
+        <v>26.42266666666667</v>
       </c>
       <c r="I105" t="n">
-        <v>0.486461129582629</v>
+        <v>135.8126666666667</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3361485106080038</v>
+        <v>10196.1155</v>
       </c>
     </row>
     <row r="106">
@@ -4463,16 +4463,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3685551610119188</v>
+        <v>103.9666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3817684540089196</v>
+        <v>27.32416666666667</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5600940754357843</v>
+        <v>140.6843333333333</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3810466815414581</v>
+        <v>10623.79283333333</v>
       </c>
     </row>
     <row r="107">
@@ -4501,16 +4501,16 @@
         <v>19.68888888888889</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3163036772370314</v>
+        <v>98.48888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3136088944762431</v>
+        <v>25.52111111111111</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5165055416481864</v>
+        <v>137.7808888888889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3135615342373795</v>
+        <v>9977.551555555556</v>
       </c>
     </row>
     <row r="108">
@@ -4539,16 +4539,16 @@
         <v>19.46666666666667</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3541446171035034</v>
+        <v>102.4666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0.343815037778909</v>
+        <v>26.32616666666667</v>
       </c>
       <c r="I108" t="n">
-        <v>0.4244662399909195</v>
+        <v>131.7828333333333</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3176928005289682</v>
+        <v>10017.76166666667</v>
       </c>
     </row>
     <row r="109">
@@ -4577,16 +4577,16 @@
         <v>21.4</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1155802448362677</v>
+        <v>73.8</v>
       </c>
       <c r="H109" t="n">
-        <v>0.09629626327368983</v>
+        <v>18.515</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6941812327317527</v>
+        <v>150.39</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08735639782857411</v>
+        <v>7265.493333333335</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,14 +529,21 @@
         <v>72.10000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>19.493</v>
+        <v>70.80383333333333</v>
       </c>
       <c r="I2" t="n">
+        <v>64.63416666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.02333333333334</v>
+      </c>
+      <c r="K2" t="n">
         <v>173.1113333333334</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7962.66</v>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,13 +574,22 @@
         <v>71.36666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18566666666667</v>
+        <v>71.62599999999999</v>
       </c>
       <c r="I3" t="n">
+        <v>64.70216666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.59833333333333</v>
+      </c>
+      <c r="K3" t="n">
         <v>164.5958333333333</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>8015.784666666666</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +621,22 @@
         <v>76.66666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>21.18488888888889</v>
+        <v>77.03400000000001</v>
       </c>
       <c r="I4" t="n">
+        <v>69.62777777777778</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.57444444444444</v>
+      </c>
+      <c r="K4" t="n">
         <v>166.4468888888889</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>8970.806666666665</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +668,22 @@
         <v>81.26666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>22.43133333333333</v>
+        <v>81.69333333333333</v>
       </c>
       <c r="I5" t="n">
+        <v>73.51133333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.306</v>
+      </c>
+      <c r="K5" t="n">
         <v>177.5133333333333</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>9596.530000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +715,22 @@
         <v>80.5</v>
       </c>
       <c r="H6" t="n">
-        <v>22.05383333333333</v>
+        <v>80.71300000000001</v>
       </c>
       <c r="I6" t="n">
+        <v>72.27549999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33.0435</v>
+      </c>
+      <c r="K6" t="n">
         <v>162.7735</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>9212.772500000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +762,22 @@
         <v>79.86666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>21.85</v>
+        <v>80.14866666666666</v>
       </c>
       <c r="I7" t="n">
+        <v>72.81733333333331</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.58000000000001</v>
+      </c>
+      <c r="K7" t="n">
         <v>164.188</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>9241.831333333334</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +809,22 @@
         <v>75.66666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>21.36866666666667</v>
+        <v>76.08033333333333</v>
       </c>
       <c r="I8" t="n">
+        <v>69.0005</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.45133333333333</v>
+      </c>
+      <c r="K8" t="n">
         <v>174.8841666666667</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>9320.332166666667</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +856,22 @@
         <v>65.51666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>17.512</v>
+        <v>65.97449999999999</v>
       </c>
       <c r="I9" t="n">
+        <v>58.9385</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.07083333333334</v>
+      </c>
+      <c r="K9" t="n">
         <v>168.6416666666667</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7461.972500000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="10">
@@ -809,22 +894,31 @@
         <v>11.06666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>37.86666666666667</v>
+        <v>32.26666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>26.8</v>
+        <v>21.2</v>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>52.93333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>14.43733333333333</v>
+        <v>53.02933333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>187.152</v>
+        <v>46.50266666666666</v>
       </c>
       <c r="J10" t="n">
-        <v>6331.017333333333</v>
+        <v>21.02266666666667</v>
+      </c>
+      <c r="K10" t="n">
+        <v>219.4486666666667</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6408.418000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +950,22 @@
         <v>56.26666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>15.288</v>
+        <v>56.69666666666667</v>
       </c>
       <c r="I11" t="n">
+        <v>51.17599999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.646</v>
+      </c>
+      <c r="K11" t="n">
         <v>176.0066666666667</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6578.642</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +997,22 @@
         <v>61.73333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>16.356</v>
+        <v>62.05216666666666</v>
       </c>
       <c r="I12" t="n">
+        <v>54.56316666666666</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="K12" t="n">
         <v>158.9271666666667</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6936.520666666666</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1044,22 @@
         <v>58.68888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>15.36577777777778</v>
+        <v>58.95355555555555</v>
       </c>
       <c r="I13" t="n">
+        <v>53.88733333333332</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23.00666666666666</v>
+      </c>
+      <c r="K13" t="n">
         <v>158.7895555555556</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6388.380888888889</v>
+      </c>
+      <c r="M13" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +1091,22 @@
         <v>56.4</v>
       </c>
       <c r="H14" t="n">
-        <v>15.22088888888889</v>
+        <v>56.906</v>
       </c>
       <c r="I14" t="n">
+        <v>50.70688888888889</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22.63733333333333</v>
+      </c>
+      <c r="K14" t="n">
         <v>171.7182222222222</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6441.018666666667</v>
+      </c>
+      <c r="M14" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1138,22 @@
         <v>69.45</v>
       </c>
       <c r="H15" t="n">
-        <v>19.4375</v>
+        <v>69.93599999999999</v>
       </c>
       <c r="I15" t="n">
+        <v>59.4415</v>
+      </c>
+      <c r="J15" t="n">
+        <v>28.69316666666667</v>
+      </c>
+      <c r="K15" t="n">
         <v>171.9538333333333</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>8513.187333333333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1185,22 @@
         <v>70.27777777777777</v>
       </c>
       <c r="H16" t="n">
-        <v>19.12116666666667</v>
+        <v>70.69961111111111</v>
       </c>
       <c r="I16" t="n">
+        <v>64.52177777777777</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.19344444444444</v>
+      </c>
+      <c r="K16" t="n">
         <v>165.8025555555555</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>8220.671444444444</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1232,22 @@
         <v>54.6</v>
       </c>
       <c r="H17" t="n">
-        <v>14.837</v>
+        <v>54.87933333333333</v>
       </c>
       <c r="I17" t="n">
+        <v>48.8615</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.907</v>
+      </c>
+      <c r="K17" t="n">
         <v>184.6796666666667</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6480.5925</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1279,22 @@
         <v>57.26666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>15.65333333333333</v>
+        <v>57.39116666666666</v>
       </c>
       <c r="I18" t="n">
+        <v>50.45666666666667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22.84183333333333</v>
+      </c>
+      <c r="K18" t="n">
         <v>163.2651666666667</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6965.030833333333</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1326,22 @@
         <v>53.33333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>14.29633333333333</v>
+        <v>53.62333333333333</v>
       </c>
       <c r="I19" t="n">
+        <v>47.64333333333334</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21.02233333333333</v>
+      </c>
+      <c r="K19" t="n">
         <v>170.3006666666667</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6240.318666666666</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="20">
@@ -1198,14 +1373,21 @@
         <v>97.83333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>27.66583333333334</v>
+        <v>98.22449999999999</v>
       </c>
       <c r="I20" t="n">
+        <v>86.96916666666665</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41.22466666666666</v>
+      </c>
+      <c r="K20" t="n">
         <v>159.824</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11757.78466666667</v>
       </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1236,13 +1418,22 @@
         <v>100.2666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>27.082</v>
+        <v>100.54</v>
       </c>
       <c r="I21" t="n">
+        <v>89.63200000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>40.788</v>
+      </c>
+      <c r="K21" t="n">
         <v>141.2246666666666</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>10966.63866666667</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1274,13 +1465,22 @@
         <v>102.4166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>29.08683333333333</v>
+        <v>102.7733333333333</v>
       </c>
       <c r="I22" t="n">
+        <v>95.81066666666668</v>
+      </c>
+      <c r="J22" t="n">
+        <v>43.43066666666667</v>
+      </c>
+      <c r="K22" t="n">
         <v>164.6141666666667</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>12267.88216666667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="23">
@@ -1312,13 +1512,22 @@
         <v>101.75</v>
       </c>
       <c r="H23" t="n">
-        <v>29.1975</v>
+        <v>102.1441666666667</v>
       </c>
       <c r="I23" t="n">
+        <v>89.45583333333333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>43.44416666666666</v>
+      </c>
+      <c r="K23" t="n">
         <v>169.2933333333333</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>12476.80916666667</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="24">
@@ -1350,13 +1559,22 @@
         <v>118.4333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>33.50333333333333</v>
+        <v>118.771</v>
       </c>
       <c r="I24" t="n">
+        <v>104.7885</v>
+      </c>
+      <c r="J24" t="n">
+        <v>49.96216666666666</v>
+      </c>
+      <c r="K24" t="n">
         <v>160.4406666666667</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>14075.31883333333</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="25">
@@ -1388,13 +1606,22 @@
         <v>104.6</v>
       </c>
       <c r="H25" t="n">
-        <v>30.56733333333333</v>
+        <v>103.8933333333333</v>
       </c>
       <c r="I25" t="n">
+        <v>92.51400000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>45.454</v>
+      </c>
+      <c r="K25" t="n">
         <v>167.894</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>12932.40866666667</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="26">
@@ -1426,13 +1653,22 @@
         <v>82.8</v>
       </c>
       <c r="H26" t="n">
-        <v>22.81066666666667</v>
+        <v>83.16666666666667</v>
       </c>
       <c r="I26" t="n">
+        <v>73.86866666666667</v>
+      </c>
+      <c r="J26" t="n">
+        <v>33.92266666666666</v>
+      </c>
+      <c r="K26" t="n">
         <v>162.964</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>9685.138666666668</v>
+      </c>
+      <c r="M26" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="27">
@@ -1464,13 +1700,22 @@
         <v>91.05</v>
       </c>
       <c r="H27" t="n">
-        <v>25.37366666666667</v>
+        <v>91.27766666666666</v>
       </c>
       <c r="I27" t="n">
+        <v>77.4575</v>
+      </c>
+      <c r="J27" t="n">
+        <v>37.73383333333333</v>
+      </c>
+      <c r="K27" t="n">
         <v>170.4485</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>10788.2825</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1747,22 @@
         <v>95.63333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>26.53133333333333</v>
+        <v>95.94350000000001</v>
       </c>
       <c r="I28" t="n">
+        <v>84.30816666666668</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39.47600000000001</v>
+      </c>
+      <c r="K28" t="n">
         <v>165.5626666666667</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11256.62216666667</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="29">
@@ -1540,13 +1794,22 @@
         <v>92.06666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>25.5695</v>
+        <v>92.20983333333334</v>
       </c>
       <c r="I29" t="n">
+        <v>81.65416666666665</v>
+      </c>
+      <c r="J29" t="n">
+        <v>38.19066666666667</v>
+      </c>
+      <c r="K29" t="n">
         <v>153.5388333333333</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>10656.50133333333</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="30">
@@ -1578,13 +1841,22 @@
         <v>84.96666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>22.96083333333333</v>
+        <v>85.21283333333334</v>
       </c>
       <c r="I30" t="n">
+        <v>74.23733333333332</v>
+      </c>
+      <c r="J30" t="n">
+        <v>34.28233333333333</v>
+      </c>
+      <c r="K30" t="n">
         <v>155.7995</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>9703.857833333333</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="31">
@@ -1616,13 +1888,22 @@
         <v>100.45</v>
       </c>
       <c r="H31" t="n">
-        <v>27.73266666666667</v>
+        <v>100.6725</v>
       </c>
       <c r="I31" t="n">
+        <v>89.99416666666666</v>
+      </c>
+      <c r="J31" t="n">
+        <v>41.51116666666667</v>
+      </c>
+      <c r="K31" t="n">
         <v>164.8906666666667</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11646.63833333333</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="32">
@@ -1654,13 +1935,22 @@
         <v>85.66666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>24.01133333333333</v>
+        <v>86.074</v>
       </c>
       <c r="I32" t="n">
+        <v>79.34400000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>35.74666666666666</v>
+      </c>
+      <c r="K32" t="n">
         <v>178.01</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>10191.37066666667</v>
+      </c>
+      <c r="M32" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="33">
@@ -1692,13 +1982,22 @@
         <v>91.16666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>24.9475</v>
+        <v>91.35416666666667</v>
       </c>
       <c r="I33" t="n">
+        <v>82.10555555555555</v>
+      </c>
+      <c r="J33" t="n">
+        <v>37.25694444444445</v>
+      </c>
+      <c r="K33" t="n">
         <v>156.8086111111111</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>10455.46388888889</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.760000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1730,13 +2029,22 @@
         <v>94.16666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>25.6185</v>
+        <v>94.58183333333334</v>
       </c>
       <c r="I34" t="n">
+        <v>81.72516666666667</v>
+      </c>
+      <c r="J34" t="n">
+        <v>38.33233333333333</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.8651666666667</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>10608.5025</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="35">
@@ -1768,13 +2076,22 @@
         <v>83.25555555555555</v>
       </c>
       <c r="H35" t="n">
-        <v>22.83333333333333</v>
+        <v>83.59288888888888</v>
       </c>
       <c r="I35" t="n">
+        <v>71.71177777777778</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33.78244444444444</v>
+      </c>
+      <c r="K35" t="n">
         <v>153.9723333333334</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>9882.199666666667</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="36">
@@ -1806,13 +2123,22 @@
         <v>86.25</v>
       </c>
       <c r="H36" t="n">
-        <v>24.165</v>
+        <v>86.54916666666666</v>
       </c>
       <c r="I36" t="n">
+        <v>74.36583333333333</v>
+      </c>
+      <c r="J36" t="n">
+        <v>35.95083333333333</v>
+      </c>
+      <c r="K36" t="n">
         <v>166.6575</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>10308.43083333333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="37">
@@ -1844,13 +2170,22 @@
         <v>69.56666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>19.031</v>
+        <v>69.75716666666666</v>
       </c>
       <c r="I37" t="n">
+        <v>60.73249999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>28.36433333333333</v>
+      </c>
+      <c r="K37" t="n">
         <v>165.8465</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>8054.064833333334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="38">
@@ -1882,14 +2217,21 @@
         <v>187.2888888888889</v>
       </c>
       <c r="H38" t="n">
-        <v>44.66955555555555</v>
+        <v>186.2911111111111</v>
       </c>
       <c r="I38" t="n">
+        <v>172.8275555555556</v>
+      </c>
+      <c r="J38" t="n">
+        <v>68.20977777777777</v>
+      </c>
+      <c r="K38" t="n">
         <v>115.7246666666667</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>15974.93488888889</v>
       </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1920,13 +2262,22 @@
         <v>201.6166666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>56.2995</v>
+        <v>200.4538333333333</v>
       </c>
       <c r="I39" t="n">
+        <v>190.0153333333334</v>
+      </c>
+      <c r="J39" t="n">
+        <v>84.77916666666665</v>
+      </c>
+      <c r="K39" t="n">
         <v>142.4715</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>22304.24533333334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1958,13 +2309,22 @@
         <v>184.45</v>
       </c>
       <c r="H40" t="n">
-        <v>48.51499999999999</v>
+        <v>183.8313333333333</v>
       </c>
       <c r="I40" t="n">
+        <v>172.5796666666667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>73.24083333333334</v>
+      </c>
+      <c r="K40" t="n">
         <v>138.0918333333333</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>18479.82416666667</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3800000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1996,13 +2356,22 @@
         <v>167.15</v>
       </c>
       <c r="H41" t="n">
-        <v>43.33305555555555</v>
+        <v>167.2286666666667</v>
       </c>
       <c r="I41" t="n">
+        <v>153.5757222222222</v>
+      </c>
+      <c r="J41" t="n">
+        <v>65.23661111111112</v>
+      </c>
+      <c r="K41" t="n">
         <v>152.1657777777778</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>17169.45155555556</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="42">
@@ -2034,13 +2403,22 @@
         <v>184.85</v>
       </c>
       <c r="H42" t="n">
-        <v>48.65366666666667</v>
+        <v>182.1318333333334</v>
       </c>
       <c r="I42" t="n">
+        <v>172.3191666666667</v>
+      </c>
+      <c r="J42" t="n">
+        <v>73.10333333333332</v>
+      </c>
+      <c r="K42" t="n">
         <v>128.6311666666667</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>19140.04683333333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="43">
@@ -2072,13 +2450,22 @@
         <v>192.7333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>50.22666666666667</v>
+        <v>192.8383333333333</v>
       </c>
       <c r="I43" t="n">
+        <v>178.5888333333333</v>
+      </c>
+      <c r="J43" t="n">
+        <v>76.26733333333333</v>
+      </c>
+      <c r="K43" t="n">
         <v>136.685</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>19258.72233333333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="44">
@@ -2110,13 +2497,22 @@
         <v>190.6333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>51.41266666666667</v>
+        <v>188.717</v>
       </c>
       <c r="I44" t="n">
+        <v>175.2486666666667</v>
+      </c>
+      <c r="J44" t="n">
+        <v>77.50333333333334</v>
+      </c>
+      <c r="K44" t="n">
         <v>139.3898333333333</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>19894.96166666667</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="45">
@@ -2148,13 +2544,22 @@
         <v>144.6888888888889</v>
       </c>
       <c r="H45" t="n">
-        <v>37.06788888888889</v>
+        <v>144.5423333333333</v>
       </c>
       <c r="I45" t="n">
+        <v>132.3872222222222</v>
+      </c>
+      <c r="J45" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="K45" t="n">
         <v>137.9854444444444</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>14144.708</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="46">
@@ -2186,13 +2591,22 @@
         <v>155.2166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>41.197</v>
+        <v>155.2191666666667</v>
       </c>
       <c r="I46" t="n">
+        <v>142.9741666666667</v>
+      </c>
+      <c r="J46" t="n">
+        <v>62.26433333333333</v>
+      </c>
+      <c r="K46" t="n">
         <v>141.0355</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>16637.5825</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="47">
@@ -2224,13 +2638,22 @@
         <v>161.3333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>42.984</v>
+        <v>161.6193333333333</v>
       </c>
       <c r="I47" t="n">
+        <v>145.0973333333334</v>
+      </c>
+      <c r="J47" t="n">
+        <v>64.928</v>
+      </c>
+      <c r="K47" t="n">
         <v>141.0446666666666</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>16972.12866666667</v>
+      </c>
+      <c r="M47" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="48">
@@ -2262,13 +2685,22 @@
         <v>168.25</v>
       </c>
       <c r="H48" t="n">
-        <v>44.59666666666666</v>
+        <v>168.4875</v>
       </c>
       <c r="I48" t="n">
+        <v>151.1908333333334</v>
+      </c>
+      <c r="J48" t="n">
+        <v>67.10583333333334</v>
+      </c>
+      <c r="K48" t="n">
         <v>138.3283333333333</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>17854.01333333333</v>
+      </c>
+      <c r="M48" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="49">
@@ -2300,13 +2732,22 @@
         <v>175.9444444444444</v>
       </c>
       <c r="H49" t="n">
-        <v>46.565</v>
+        <v>175.9861111111111</v>
       </c>
       <c r="I49" t="n">
+        <v>155.365</v>
+      </c>
+      <c r="J49" t="n">
+        <v>70.0488888888889</v>
+      </c>
+      <c r="K49" t="n">
         <v>134.8227777777778</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>18744.25333333333</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2338,13 +2779,22 @@
         <v>150.1166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>41.06833333333334</v>
+        <v>150.3356666666667</v>
       </c>
       <c r="I50" t="n">
+        <v>135.9326666666667</v>
+      </c>
+      <c r="J50" t="n">
+        <v>61.84733333333333</v>
+      </c>
+      <c r="K50" t="n">
         <v>166.8758333333333</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>16509.1255</v>
+      </c>
+      <c r="M50" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="51">
@@ -2376,13 +2826,22 @@
         <v>159.75</v>
       </c>
       <c r="H51" t="n">
-        <v>40.1835</v>
+        <v>159.5951666666667</v>
       </c>
       <c r="I51" t="n">
+        <v>146.7683333333333</v>
+      </c>
+      <c r="J51" t="n">
+        <v>60.934</v>
+      </c>
+      <c r="K51" t="n">
         <v>122.4906666666667</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>14771.67483333333</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="52">
@@ -2414,13 +2873,22 @@
         <v>161.7555555555556</v>
       </c>
       <c r="H52" t="n">
-        <v>42.79155555555555</v>
+        <v>161.7424444444445</v>
       </c>
       <c r="I52" t="n">
+        <v>143.8757777777778</v>
+      </c>
+      <c r="J52" t="n">
+        <v>64.29177777777778</v>
+      </c>
+      <c r="K52" t="n">
         <v>145.2344444444444</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>17347.48088888889</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2452,13 +2920,22 @@
         <v>167.05</v>
       </c>
       <c r="H53" t="n">
-        <v>44.2655</v>
+        <v>167.413</v>
       </c>
       <c r="I53" t="n">
+        <v>154.3688333333334</v>
+      </c>
+      <c r="J53" t="n">
+        <v>66.22799999999999</v>
+      </c>
+      <c r="K53" t="n">
         <v>114.6476666666667</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>18196.44783333334</v>
+      </c>
+      <c r="M53" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="54">
@@ -2490,13 +2967,22 @@
         <v>171.5</v>
       </c>
       <c r="H54" t="n">
-        <v>48.27083333333334</v>
+        <v>169.2433333333333</v>
       </c>
       <c r="I54" t="n">
+        <v>157.3108333333333</v>
+      </c>
+      <c r="J54" t="n">
+        <v>72.57166666666667</v>
+      </c>
+      <c r="K54" t="n">
         <v>149.7075</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>18712.48416666667</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.580000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2528,13 +3014,22 @@
         <v>168.2222222222222</v>
       </c>
       <c r="H55" t="n">
-        <v>44.01433333333333</v>
+        <v>167.9736111111111</v>
       </c>
       <c r="I55" t="n">
+        <v>153.9831666666667</v>
+      </c>
+      <c r="J55" t="n">
+        <v>66.65438888888889</v>
+      </c>
+      <c r="K55" t="n">
         <v>132.9725</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>17167.09255555556</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="56">
@@ -2566,14 +3061,21 @@
         <v>204.8666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>54.438</v>
+        <v>200.8993333333333</v>
       </c>
       <c r="I56" t="n">
+        <v>182.7273333333333</v>
+      </c>
+      <c r="J56" t="n">
+        <v>83.46333333333332</v>
+      </c>
+      <c r="K56" t="n">
         <v>128.196</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>19597.47133333333</v>
       </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2604,13 +3106,22 @@
         <v>188.8888888888889</v>
       </c>
       <c r="H57" t="n">
-        <v>47.49638888888889</v>
+        <v>188.0122222222222</v>
       </c>
       <c r="I57" t="n">
+        <v>163.9722222222222</v>
+      </c>
+      <c r="J57" t="n">
+        <v>72.92611111111111</v>
+      </c>
+      <c r="K57" t="n">
         <v>115.7983333333333</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>17011.55166666667</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5.900000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -2642,13 +3153,22 @@
         <v>188.9166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>49.6095</v>
+        <v>185.4108333333333</v>
       </c>
       <c r="I58" t="n">
+        <v>175.9505</v>
+      </c>
+      <c r="J58" t="n">
+        <v>76.09283333333333</v>
+      </c>
+      <c r="K58" t="n">
         <v>135.9198333333333</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>17646.813</v>
+      </c>
+      <c r="M58" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="59">
@@ -2680,13 +3200,22 @@
         <v>175.4777777777778</v>
       </c>
       <c r="H59" t="n">
-        <v>43.52122222222223</v>
+        <v>175.8385555555556</v>
       </c>
       <c r="I59" t="n">
+        <v>161.0102222222222</v>
+      </c>
+      <c r="J59" t="n">
+        <v>66.747</v>
+      </c>
+      <c r="K59" t="n">
         <v>109.4637777777778</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>15475.89277777778</v>
+      </c>
+      <c r="M59" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="60">
@@ -2718,13 +3247,22 @@
         <v>194.7666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>50.22383333333334</v>
+        <v>192.1516666666666</v>
       </c>
       <c r="I60" t="n">
+        <v>168.0301666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76.99133333333334</v>
+      </c>
+      <c r="K60" t="n">
         <v>121.224</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>18551.19733333333</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="61">
@@ -2756,13 +3294,22 @@
         <v>187.65</v>
       </c>
       <c r="H61" t="n">
-        <v>50.33033333333333</v>
+        <v>187.0491666666667</v>
       </c>
       <c r="I61" t="n">
+        <v>172.1726666666667</v>
+      </c>
+      <c r="J61" t="n">
+        <v>77.06150000000001</v>
+      </c>
+      <c r="K61" t="n">
         <v>132.0563333333333</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>17953.9655</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="62">
@@ -2794,13 +3341,22 @@
         <v>195.9666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>48.41116666666667</v>
+        <v>196.2221666666667</v>
       </c>
       <c r="I62" t="n">
+        <v>177.5323333333333</v>
+      </c>
+      <c r="J62" t="n">
+        <v>73.90116666666667</v>
+      </c>
+      <c r="K62" t="n">
         <v>127.9168333333333</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>17297.31716666666</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="63">
@@ -2832,13 +3388,22 @@
         <v>176.7333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>44.75666666666667</v>
+        <v>177.0505</v>
       </c>
       <c r="I63" t="n">
+        <v>155.4723333333333</v>
+      </c>
+      <c r="J63" t="n">
+        <v>68.62066666666665</v>
+      </c>
+      <c r="K63" t="n">
         <v>124.8978333333333</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>16211.46766666667</v>
+      </c>
+      <c r="M63" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="64">
@@ -2870,13 +3435,22 @@
         <v>179.1666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>45.95266666666667</v>
+        <v>179.181</v>
       </c>
       <c r="I64" t="n">
+        <v>153.898</v>
+      </c>
+      <c r="J64" t="n">
+        <v>70.22883333333333</v>
+      </c>
+      <c r="K64" t="n">
         <v>127.776</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>17069.2175</v>
+      </c>
+      <c r="M64" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="65">
@@ -2908,13 +3482,22 @@
         <v>185.15</v>
       </c>
       <c r="H65" t="n">
-        <v>47.71166666666667</v>
+        <v>181.8023333333333</v>
       </c>
       <c r="I65" t="n">
+        <v>157.4671666666667</v>
+      </c>
+      <c r="J65" t="n">
+        <v>73.20566666666667</v>
+      </c>
+      <c r="K65" t="n">
         <v>130.8016666666666</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>17313.23833333333</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="66">
@@ -2946,13 +3529,22 @@
         <v>178.8333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>45.11333333333334</v>
+        <v>179.1908333333333</v>
       </c>
       <c r="I66" t="n">
+        <v>152.6141666666666</v>
+      </c>
+      <c r="J66" t="n">
+        <v>68.94916666666667</v>
+      </c>
+      <c r="K66" t="n">
         <v>117.4841666666667</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>16586.2925</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="67">
@@ -2984,13 +3576,22 @@
         <v>177.2</v>
       </c>
       <c r="H67" t="n">
-        <v>45.59933333333333</v>
+        <v>177.1566666666667</v>
       </c>
       <c r="I67" t="n">
+        <v>156.702</v>
+      </c>
+      <c r="J67" t="n">
+        <v>69.85599999999999</v>
+      </c>
+      <c r="K67" t="n">
         <v>122.938</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>16552.332</v>
+      </c>
+      <c r="M67" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="68">
@@ -3022,13 +3623,22 @@
         <v>177.4666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>45.42483333333333</v>
+        <v>177.9221666666666</v>
       </c>
       <c r="I68" t="n">
+        <v>149.9783333333333</v>
+      </c>
+      <c r="J68" t="n">
+        <v>69.31983333333334</v>
+      </c>
+      <c r="K68" t="n">
         <v>126.5948333333333</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>16975.94366666667</v>
+      </c>
+      <c r="M68" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="69">
@@ -3060,13 +3670,22 @@
         <v>175.1</v>
       </c>
       <c r="H69" t="n">
-        <v>43.774</v>
+        <v>175.2615</v>
       </c>
       <c r="I69" t="n">
+        <v>158.0936666666667</v>
+      </c>
+      <c r="J69" t="n">
+        <v>67.2435</v>
+      </c>
+      <c r="K69" t="n">
         <v>117.4796666666667</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>15773.64083333333</v>
+      </c>
+      <c r="M69" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="70">
@@ -3098,13 +3717,22 @@
         <v>181.0333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>45.965</v>
+        <v>180.5231666666666</v>
       </c>
       <c r="I70" t="n">
+        <v>154.8748333333333</v>
+      </c>
+      <c r="J70" t="n">
+        <v>70.49866666666667</v>
+      </c>
+      <c r="K70" t="n">
         <v>115.2646666666667</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>16438.19133333333</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="71">
@@ -3136,13 +3764,22 @@
         <v>182.5666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>46.81966666666667</v>
+        <v>181.756</v>
       </c>
       <c r="I71" t="n">
+        <v>158.362</v>
+      </c>
+      <c r="J71" t="n">
+        <v>71.57350000000001</v>
+      </c>
+      <c r="K71" t="n">
         <v>119.8245</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>17104.75683333333</v>
+      </c>
+      <c r="M71" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="72">
@@ -3174,13 +3811,22 @@
         <v>174.4666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>42.88316666666666</v>
+        <v>174.7585</v>
       </c>
       <c r="I72" t="n">
+        <v>150.7978333333333</v>
+      </c>
+      <c r="J72" t="n">
+        <v>66.03733333333334</v>
+      </c>
+      <c r="K72" t="n">
         <v>108.116</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>15276.7295</v>
+      </c>
+      <c r="M72" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="73">
@@ -3212,13 +3858,22 @@
         <v>144.5166666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>35.36966666666667</v>
+        <v>144.8001666666667</v>
       </c>
       <c r="I73" t="n">
+        <v>129.1891666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>53.90083333333334</v>
+      </c>
+      <c r="K73" t="n">
         <v>127.4826666666667</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>13220.12483333333</v>
+      </c>
+      <c r="M73" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="74">
@@ -3250,14 +3905,21 @@
         <v>136</v>
       </c>
       <c r="H74" t="n">
-        <v>29.90355555555556</v>
+        <v>136.4586666666667</v>
       </c>
       <c r="I74" t="n">
+        <v>121.8308888888889</v>
+      </c>
+      <c r="J74" t="n">
+        <v>46.26</v>
+      </c>
+      <c r="K74" t="n">
         <v>88.87355555555554</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>9364.746444444443</v>
       </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3288,13 +3950,22 @@
         <v>132.2833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>31.71983333333333</v>
+        <v>132.5151666666667</v>
       </c>
       <c r="I75" t="n">
+        <v>121.8573333333333</v>
+      </c>
+      <c r="J75" t="n">
+        <v>48.60166666666667</v>
+      </c>
+      <c r="K75" t="n">
         <v>99.2355</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>11461.109</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="76">
@@ -3326,13 +3997,22 @@
         <v>110.2666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>24.41</v>
+        <v>110.4355555555555</v>
       </c>
       <c r="I76" t="n">
+        <v>101.5671111111111</v>
+      </c>
+      <c r="J76" t="n">
+        <v>37.70066666666667</v>
+      </c>
+      <c r="K76" t="n">
         <v>95.49399999999999</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>8186.059777777778</v>
+      </c>
+      <c r="M76" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="77">
@@ -3364,13 +4044,22 @@
         <v>115.0166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>25.568</v>
+        <v>114.9086666666667</v>
       </c>
       <c r="I77" t="n">
+        <v>103.5738333333333</v>
+      </c>
+      <c r="J77" t="n">
+        <v>39.28033333333334</v>
+      </c>
+      <c r="K77" t="n">
         <v>104.4635</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>8583.036833333334</v>
+      </c>
+      <c r="M77" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +4091,22 @@
         <v>135.5666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>30.8975</v>
+        <v>135.6791666666667</v>
       </c>
       <c r="I78" t="n">
+        <v>121.5333333333333</v>
+      </c>
+      <c r="J78" t="n">
+        <v>47.60466666666667</v>
+      </c>
+      <c r="K78" t="n">
         <v>96.60416666666667</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>10473.38233333333</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="79">
@@ -3440,13 +4138,22 @@
         <v>127.0333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>28.42</v>
+        <v>127.2453333333333</v>
       </c>
       <c r="I79" t="n">
+        <v>115.6936666666667</v>
+      </c>
+      <c r="J79" t="n">
+        <v>43.76366666666667</v>
+      </c>
+      <c r="K79" t="n">
         <v>99.64366666666666</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>9692.556333333334</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="80">
@@ -3478,13 +4185,22 @@
         <v>133.3666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>29.95933333333334</v>
+        <v>133.683</v>
       </c>
       <c r="I80" t="n">
+        <v>126.1001666666667</v>
+      </c>
+      <c r="J80" t="n">
+        <v>46.20316666666667</v>
+      </c>
+      <c r="K80" t="n">
         <v>87.73066666666666</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>9957.5615</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-3.200000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -3516,13 +4232,22 @@
         <v>116.6</v>
       </c>
       <c r="H81" t="n">
-        <v>25.37933333333334</v>
+        <v>117.0331666666667</v>
       </c>
       <c r="I81" t="n">
+        <v>106.4758333333333</v>
+      </c>
+      <c r="J81" t="n">
+        <v>39.33383333333333</v>
+      </c>
+      <c r="K81" t="n">
         <v>86.9055</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>8058.2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="82">
@@ -3554,13 +4279,22 @@
         <v>111.65</v>
       </c>
       <c r="H82" t="n">
-        <v>25.3135</v>
+        <v>111.768</v>
       </c>
       <c r="I82" t="n">
+        <v>104.414</v>
+      </c>
+      <c r="J82" t="n">
+        <v>39.02683333333334</v>
+      </c>
+      <c r="K82" t="n">
         <v>91.70650000000001</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>8402.587333333333</v>
+      </c>
+      <c r="M82" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="83">
@@ -3592,13 +4326,22 @@
         <v>118.9833333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>26.89633333333333</v>
+        <v>118.9988333333333</v>
       </c>
       <c r="I83" t="n">
+        <v>109.0895</v>
+      </c>
+      <c r="J83" t="n">
+        <v>41.40383333333333</v>
+      </c>
+      <c r="K83" t="n">
         <v>94.81849999999999</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>9005.830833333333</v>
+      </c>
+      <c r="M83" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="84">
@@ -3630,13 +4373,22 @@
         <v>102.95</v>
       </c>
       <c r="H84" t="n">
-        <v>24.15283333333333</v>
+        <v>103.2435</v>
       </c>
       <c r="I84" t="n">
+        <v>94.62516666666666</v>
+      </c>
+      <c r="J84" t="n">
+        <v>36.82400000000001</v>
+      </c>
+      <c r="K84" t="n">
         <v>106.6635</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>9153.603500000001</v>
+      </c>
+      <c r="M84" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="85">
@@ -3668,13 +4420,22 @@
         <v>108.8777777777778</v>
       </c>
       <c r="H85" t="n">
-        <v>24.64027777777778</v>
+        <v>109.1549444444444</v>
       </c>
       <c r="I85" t="n">
+        <v>101.5617222222222</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37.78677777777778</v>
+      </c>
+      <c r="K85" t="n">
         <v>102.8367222222222</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>8446.468055555555</v>
+      </c>
+      <c r="M85" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="86">
@@ -3706,13 +4467,22 @@
         <v>125.7</v>
       </c>
       <c r="H86" t="n">
-        <v>28.27216666666666</v>
+        <v>126.0215</v>
       </c>
       <c r="I86" t="n">
+        <v>117.5661666666667</v>
+      </c>
+      <c r="J86" t="n">
+        <v>43.3305</v>
+      </c>
+      <c r="K86" t="n">
         <v>93.78800000000001</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>9930.993833333334</v>
+      </c>
+      <c r="M86" t="n">
+        <v>7.159999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -3744,13 +4514,22 @@
         <v>115.05</v>
       </c>
       <c r="H87" t="n">
-        <v>26.18366666666667</v>
+        <v>115.17</v>
       </c>
       <c r="I87" t="n">
+        <v>104.7865</v>
+      </c>
+      <c r="J87" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="K87" t="n">
         <v>113.9301666666667</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>9057.355333333333</v>
+      </c>
+      <c r="M87" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="88">
@@ -3782,13 +4561,22 @@
         <v>118.2833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>24.28066666666667</v>
+        <v>118.6356666666667</v>
       </c>
       <c r="I88" t="n">
+        <v>108.4978333333333</v>
+      </c>
+      <c r="J88" t="n">
+        <v>37.71933333333333</v>
+      </c>
+      <c r="K88" t="n">
         <v>80.85816666666666</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>7220.7835</v>
+      </c>
+      <c r="M88" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="89">
@@ -3820,13 +4608,22 @@
         <v>126.9333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>28.30133333333334</v>
+        <v>127.1453333333333</v>
       </c>
       <c r="I89" t="n">
+        <v>117.196</v>
+      </c>
+      <c r="J89" t="n">
+        <v>43.54066666666666</v>
+      </c>
+      <c r="K89" t="n">
         <v>90.54933333333332</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>9912.729999999998</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="90">
@@ -3858,13 +4655,22 @@
         <v>114.2833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>26.69883333333333</v>
+        <v>114.4956666666667</v>
       </c>
       <c r="I90" t="n">
+        <v>105.7601666666666</v>
+      </c>
+      <c r="J90" t="n">
+        <v>40.74016666666667</v>
+      </c>
+      <c r="K90" t="n">
         <v>117.4501666666667</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>9730.3935</v>
+      </c>
+      <c r="M90" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="91">
@@ -3896,13 +4702,22 @@
         <v>87.81111111111112</v>
       </c>
       <c r="H91" t="n">
-        <v>20.36555555555556</v>
+        <v>87.95844444444442</v>
       </c>
       <c r="I91" t="n">
+        <v>79.46533333333333</v>
+      </c>
+      <c r="J91" t="n">
+        <v>30.98288888888889</v>
+      </c>
+      <c r="K91" t="n">
         <v>117.7585555555556</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>7638.298444444445</v>
+      </c>
+      <c r="M91" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="92">
@@ -3934,14 +4749,21 @@
         <v>120.0666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>33.44533333333333</v>
+        <v>119.7673333333333</v>
       </c>
       <c r="I92" t="n">
+        <v>109.1486666666667</v>
+      </c>
+      <c r="J92" t="n">
+        <v>50.71933333333333</v>
+      </c>
+      <c r="K92" t="n">
         <v>144.5886666666667</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>12911.34333333333</v>
       </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3972,13 +4794,22 @@
         <v>112.8833333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>30.30866666666667</v>
+        <v>112.3258333333333</v>
       </c>
       <c r="I93" t="n">
+        <v>102.0211666666667</v>
+      </c>
+      <c r="J93" t="n">
+        <v>45.9755</v>
+      </c>
+      <c r="K93" t="n">
         <v>143.99</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>11681.01566666667</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="94">
@@ -4010,13 +4841,22 @@
         <v>106.1166666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>28.458</v>
+        <v>105.212</v>
       </c>
       <c r="I94" t="n">
+        <v>97.0125</v>
+      </c>
+      <c r="J94" t="n">
+        <v>43.22483333333333</v>
+      </c>
+      <c r="K94" t="n">
         <v>142.0723333333333</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>10936.513</v>
+      </c>
+      <c r="M94" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="95">
@@ -4048,13 +4888,22 @@
         <v>117.3833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>31.7485</v>
+        <v>115.8581666666667</v>
       </c>
       <c r="I95" t="n">
+        <v>107.0335</v>
+      </c>
+      <c r="J95" t="n">
+        <v>48.0785</v>
+      </c>
+      <c r="K95" t="n">
         <v>152.9241666666667</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>12358.376</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="96">
@@ -4086,13 +4935,22 @@
         <v>110.6833333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>29.50383333333333</v>
+        <v>111.0075</v>
       </c>
       <c r="I96" t="n">
+        <v>97.92883333333333</v>
+      </c>
+      <c r="J96" t="n">
+        <v>44.94266666666667</v>
+      </c>
+      <c r="K96" t="n">
         <v>137.8481666666667</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>11430.44066666667</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5.650000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4124,13 +4982,22 @@
         <v>112</v>
       </c>
       <c r="H97" t="n">
-        <v>29.02683333333333</v>
+        <v>112.3271666666667</v>
       </c>
       <c r="I97" t="n">
+        <v>106.1796666666667</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44.16650000000001</v>
+      </c>
+      <c r="K97" t="n">
         <v>135.9393333333333</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>11159.82416666667</v>
+      </c>
+      <c r="M97" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="98">
@@ -4162,13 +5029,22 @@
         <v>109.95</v>
       </c>
       <c r="H98" t="n">
-        <v>29.49266666666667</v>
+        <v>109.9665</v>
       </c>
       <c r="I98" t="n">
+        <v>100.2551666666667</v>
+      </c>
+      <c r="J98" t="n">
+        <v>44.84616666666667</v>
+      </c>
+      <c r="K98" t="n">
         <v>137.9931666666667</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>11326.7255</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="99">
@@ -4200,13 +5076,22 @@
         <v>102.6166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>26.789</v>
+        <v>102.8413333333333</v>
       </c>
       <c r="I99" t="n">
+        <v>93.94933333333334</v>
+      </c>
+      <c r="J99" t="n">
+        <v>40.81016666666667</v>
+      </c>
+      <c r="K99" t="n">
         <v>139.9143333333333</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>10337.1405</v>
+      </c>
+      <c r="M99" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="100">
@@ -4238,13 +5123,22 @@
         <v>102.7333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>27.00333333333333</v>
+        <v>102.5053333333333</v>
       </c>
       <c r="I100" t="n">
+        <v>94.682</v>
+      </c>
+      <c r="J100" t="n">
+        <v>41.10933333333333</v>
+      </c>
+      <c r="K100" t="n">
         <v>139.3986666666667</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>10359.218</v>
+      </c>
+      <c r="M100" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="101">
@@ -4276,13 +5170,22 @@
         <v>99.45</v>
       </c>
       <c r="H101" t="n">
-        <v>25.96566666666667</v>
+        <v>99.58183333333334</v>
       </c>
       <c r="I101" t="n">
+        <v>90.02666666666666</v>
+      </c>
+      <c r="J101" t="n">
+        <v>39.4785</v>
+      </c>
+      <c r="K101" t="n">
         <v>133.9608333333333</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>10134.0795</v>
+      </c>
+      <c r="M101" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="102">
@@ -4314,13 +5217,22 @@
         <v>107.2333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>28.33566666666667</v>
+        <v>104.5346666666667</v>
       </c>
       <c r="I102" t="n">
+        <v>98.22500000000001</v>
+      </c>
+      <c r="J102" t="n">
+        <v>43.08066666666667</v>
+      </c>
+      <c r="K102" t="n">
         <v>140.8443333333333</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>10939.91983333333</v>
+      </c>
+      <c r="M102" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="103">
@@ -4352,13 +5264,22 @@
         <v>99.70555555555556</v>
       </c>
       <c r="H103" t="n">
-        <v>26.14794444444445</v>
+        <v>99.85955555555556</v>
       </c>
       <c r="I103" t="n">
+        <v>90.71249999999999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>39.79283333333333</v>
+      </c>
+      <c r="K103" t="n">
         <v>133.2564444444444</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>9958.477277777778</v>
+      </c>
+      <c r="M103" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="104">
@@ -4390,13 +5311,22 @@
         <v>109.5833333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>28.72</v>
+        <v>109.8841666666667</v>
       </c>
       <c r="I104" t="n">
+        <v>98.90166666666669</v>
+      </c>
+      <c r="J104" t="n">
+        <v>43.6675</v>
+      </c>
+      <c r="K104" t="n">
         <v>137.4608333333333</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>11150.91666666667</v>
+      </c>
+      <c r="M104" t="n">
+        <v>6.010000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4428,13 +5358,22 @@
         <v>101.4833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>26.42266666666667</v>
+        <v>101.7296666666667</v>
       </c>
       <c r="I105" t="n">
+        <v>93.79883333333333</v>
+      </c>
+      <c r="J105" t="n">
+        <v>40.2165</v>
+      </c>
+      <c r="K105" t="n">
         <v>135.8126666666667</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>10196.1155</v>
+      </c>
+      <c r="M105" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="106">
@@ -4466,13 +5405,22 @@
         <v>103.9666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>27.32416666666667</v>
+        <v>104.1433333333333</v>
       </c>
       <c r="I106" t="n">
+        <v>96.22966666666667</v>
+      </c>
+      <c r="J106" t="n">
+        <v>41.52383333333333</v>
+      </c>
+      <c r="K106" t="n">
         <v>140.6843333333333</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>10623.79283333333</v>
+      </c>
+      <c r="M106" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="107">
@@ -4504,13 +5452,22 @@
         <v>98.48888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>25.52111111111111</v>
+        <v>98.83955555555555</v>
       </c>
       <c r="I107" t="n">
+        <v>85.83088888888891</v>
+      </c>
+      <c r="J107" t="n">
+        <v>38.77333333333333</v>
+      </c>
+      <c r="K107" t="n">
         <v>137.7808888888889</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>9977.551555555556</v>
+      </c>
+      <c r="M107" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="108">
@@ -4542,13 +5499,22 @@
         <v>102.4666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>26.32616666666667</v>
+        <v>102.696</v>
       </c>
       <c r="I108" t="n">
+        <v>92.38016666666668</v>
+      </c>
+      <c r="J108" t="n">
+        <v>40.17083333333333</v>
+      </c>
+      <c r="K108" t="n">
         <v>131.7828333333333</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>10017.76166666667</v>
+      </c>
+      <c r="M108" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="109">
@@ -4580,13 +5546,22 @@
         <v>73.8</v>
       </c>
       <c r="H109" t="n">
-        <v>18.515</v>
+        <v>73.67733333333332</v>
       </c>
       <c r="I109" t="n">
+        <v>66.98199999999999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>28.06333333333333</v>
+      </c>
+      <c r="K109" t="n">
         <v>150.39</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>7265.493333333335</v>
+      </c>
+      <c r="M109" t="n">
+        <v>36.17</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
@@ -562,31 +562,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.56666666666667</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>30.46666666666667</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>18.9</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="G3" t="n">
-        <v>71.36666666666666</v>
+        <v>70.72222222222223</v>
       </c>
       <c r="H3" t="n">
-        <v>71.62599999999999</v>
+        <v>71.06777777777778</v>
       </c>
       <c r="I3" t="n">
-        <v>64.70216666666666</v>
+        <v>63.90527777777777</v>
       </c>
       <c r="J3" t="n">
-        <v>28.59833333333333</v>
+        <v>28.33166666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>164.5958333333333</v>
+        <v>172.3091666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>8015.784666666666</v>
+        <v>7867.354444444444</v>
       </c>
       <c r="M3" t="n">
         <v>-1.08</v>
@@ -612,28 +612,28 @@
         <v>10.8</v>
       </c>
       <c r="E4" t="n">
-        <v>29.64444444444445</v>
+        <v>29.2</v>
       </c>
       <c r="F4" t="n">
-        <v>18.84444444444444</v>
+        <v>18.4</v>
       </c>
       <c r="G4" t="n">
-        <v>76.66666666666667</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>77.03400000000001</v>
+        <v>78.67399999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>69.62777777777778</v>
+        <v>70.78333333333335</v>
       </c>
       <c r="J4" t="n">
-        <v>31.57444444444444</v>
+        <v>32.6</v>
       </c>
       <c r="K4" t="n">
-        <v>166.4468888888889</v>
+        <v>170.9463333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>8970.806666666665</v>
+        <v>9332.671666666667</v>
       </c>
       <c r="M4" t="n">
         <v>-9.16</v>
@@ -712,22 +712,22 @@
         <v>18.93333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>80.5</v>
+        <v>82.11666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>80.71300000000001</v>
+        <v>82.31166666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>72.27549999999999</v>
+        <v>74.03083333333332</v>
       </c>
       <c r="J6" t="n">
-        <v>33.0435</v>
+        <v>33.74266666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>162.7735</v>
+        <v>162.8485</v>
       </c>
       <c r="L6" t="n">
-        <v>9212.772500000001</v>
+        <v>9392.641333333333</v>
       </c>
       <c r="M6" t="n">
         <v>-8.369999999999999</v>
@@ -750,31 +750,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.6</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="E7" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F7" t="n">
-        <v>18.53333333333333</v>
+        <v>18.56666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>79.86666666666666</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>80.14866666666666</v>
+        <v>80.37249999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>72.81733333333331</v>
+        <v>72.96883333333332</v>
       </c>
       <c r="J7" t="n">
-        <v>32.58000000000001</v>
+        <v>32.62766666666667</v>
       </c>
       <c r="K7" t="n">
-        <v>164.188</v>
+        <v>162.7905</v>
       </c>
       <c r="L7" t="n">
-        <v>9241.831333333334</v>
+        <v>9239.347166666666</v>
       </c>
       <c r="M7" t="n">
         <v>-10.16</v>
@@ -797,31 +797,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.36666666666667</v>
+        <v>11.5</v>
       </c>
       <c r="E8" t="n">
-        <v>30.46666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="F8" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
         <v>75.66666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>76.08033333333333</v>
+        <v>76.06916666666666</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0005</v>
+        <v>68.60916666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>31.45133333333333</v>
+        <v>31.415</v>
       </c>
       <c r="K8" t="n">
-        <v>174.8841666666667</v>
+        <v>172.7766666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>9320.332166666667</v>
+        <v>9302.633333333333</v>
       </c>
       <c r="M8" t="n">
         <v>-2.17</v>
@@ -947,22 +947,22 @@
         <v>18.13333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>56.26666666666666</v>
+        <v>59.81666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>56.69666666666667</v>
+        <v>60.24566666666666</v>
       </c>
       <c r="I11" t="n">
-        <v>51.17599999999999</v>
+        <v>54.088</v>
       </c>
       <c r="J11" t="n">
-        <v>22.646</v>
+        <v>23.88783333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>176.0066666666667</v>
+        <v>158.565</v>
       </c>
       <c r="L11" t="n">
-        <v>6578.642</v>
+        <v>6892.387333333333</v>
       </c>
       <c r="M11" t="n">
         <v>22.39</v>
@@ -1032,31 +1032,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.97777777777778</v>
+        <v>11.01111111111111</v>
       </c>
       <c r="E13" t="n">
-        <v>30.66666666666667</v>
+        <v>30.7</v>
       </c>
       <c r="F13" t="n">
         <v>19.68888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>58.68888888888889</v>
+        <v>57.18888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>58.95355555555555</v>
+        <v>57.52255555555555</v>
       </c>
       <c r="I13" t="n">
-        <v>53.88733333333332</v>
+        <v>53.15466666666666</v>
       </c>
       <c r="J13" t="n">
-        <v>23.00666666666666</v>
+        <v>22.34783333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>158.7895555555556</v>
+        <v>157.2438888888889</v>
       </c>
       <c r="L13" t="n">
-        <v>6388.380888888889</v>
+        <v>6196.159222222222</v>
       </c>
       <c r="M13" t="n">
         <v>23.05</v>
@@ -1079,31 +1079,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.31111111111111</v>
+        <v>12.44444444444444</v>
       </c>
       <c r="E14" t="n">
-        <v>31.06666666666667</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>18.75555555555556</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="G14" t="n">
-        <v>56.4</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>56.906</v>
+        <v>55.12833333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>50.70688888888889</v>
+        <v>49.66138888888889</v>
       </c>
       <c r="J14" t="n">
-        <v>22.63733333333333</v>
+        <v>21.77</v>
       </c>
       <c r="K14" t="n">
-        <v>171.7182222222222</v>
+        <v>166.5855555555555</v>
       </c>
       <c r="L14" t="n">
-        <v>6441.018666666667</v>
+        <v>6133.0575</v>
       </c>
       <c r="M14" t="n">
         <v>18.8</v>
@@ -1176,28 +1176,28 @@
         <v>11.76666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>30.74444444444444</v>
+        <v>30.63333333333334</v>
       </c>
       <c r="F16" t="n">
-        <v>18.97777777777778</v>
+        <v>18.86666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>70.27777777777777</v>
+        <v>69</v>
       </c>
       <c r="H16" t="n">
-        <v>70.69961111111111</v>
+        <v>69.37683333333332</v>
       </c>
       <c r="I16" t="n">
-        <v>64.52177777777777</v>
+        <v>63.18066666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>28.19344444444444</v>
+        <v>27.82566666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>165.8025555555555</v>
+        <v>162.722</v>
       </c>
       <c r="L16" t="n">
-        <v>8220.671444444444</v>
+        <v>8159.928666666667</v>
       </c>
       <c r="M16" t="n">
         <v>-0.89</v>
@@ -1267,31 +1267,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.76666666666667</v>
+        <v>11.64444444444444</v>
       </c>
       <c r="E18" t="n">
-        <v>30.7</v>
+        <v>30.35555555555555</v>
       </c>
       <c r="F18" t="n">
-        <v>18.93333333333333</v>
+        <v>18.71111111111111</v>
       </c>
       <c r="G18" t="n">
-        <v>57.26666666666667</v>
+        <v>57.17777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>57.39116666666666</v>
+        <v>57.26488888888889</v>
       </c>
       <c r="I18" t="n">
-        <v>50.45666666666667</v>
+        <v>49.69622222222222</v>
       </c>
       <c r="J18" t="n">
-        <v>22.84183333333333</v>
+        <v>22.936</v>
       </c>
       <c r="K18" t="n">
-        <v>163.2651666666667</v>
+        <v>165.3482222222222</v>
       </c>
       <c r="L18" t="n">
-        <v>6965.030833333333</v>
+        <v>7058.815333333335</v>
       </c>
       <c r="M18" t="n">
         <v>19.21</v>
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.2</v>
+        <v>10.08888888888889</v>
       </c>
       <c r="E22" t="n">
-        <v>30.33333333333333</v>
+        <v>30.44444444444445</v>
       </c>
       <c r="F22" t="n">
-        <v>20.13333333333333</v>
+        <v>20.35555555555555</v>
       </c>
       <c r="G22" t="n">
-        <v>102.4166666666667</v>
+        <v>105</v>
       </c>
       <c r="H22" t="n">
-        <v>102.7733333333333</v>
+        <v>105.3066666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>95.81066666666668</v>
+        <v>97.72955555555556</v>
       </c>
       <c r="J22" t="n">
-        <v>43.43066666666667</v>
+        <v>44.68177777777779</v>
       </c>
       <c r="K22" t="n">
-        <v>164.6141666666667</v>
+        <v>163.1522222222222</v>
       </c>
       <c r="L22" t="n">
-        <v>12267.88216666667</v>
+        <v>12606.23688888889</v>
       </c>
       <c r="M22" t="n">
         <v>-1.61</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="E24" t="n">
-        <v>31.5</v>
+        <v>30.16666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>20.9</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4333333333333</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>118.771</v>
+        <v>116.6191666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>104.7885</v>
+        <v>104.3808333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>49.96216666666666</v>
+        <v>48.44083333333333</v>
       </c>
       <c r="K24" t="n">
-        <v>160.4406666666667</v>
+        <v>158.9141666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>14075.31883333333</v>
+        <v>13700.91416666667</v>
       </c>
       <c r="M24" t="n">
         <v>-15.83</v>
@@ -1738,28 +1738,28 @@
         <v>10.16666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>30.56666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="F28" t="n">
-        <v>20.4</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G28" t="n">
-        <v>95.63333333333333</v>
+        <v>92.75</v>
       </c>
       <c r="H28" t="n">
-        <v>95.94350000000001</v>
+        <v>93.08750000000002</v>
       </c>
       <c r="I28" t="n">
-        <v>84.30816666666668</v>
+        <v>80.98833333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>39.47600000000001</v>
+        <v>38.42250000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>165.5626666666667</v>
+        <v>164.1258333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>11256.62216666667</v>
+        <v>10909.15416666667</v>
       </c>
       <c r="M28" t="n">
         <v>5.7</v>
@@ -1838,22 +1838,22 @@
         <v>19.4</v>
       </c>
       <c r="G30" t="n">
-        <v>84.96666666666667</v>
+        <v>88.13333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>85.21283333333334</v>
+        <v>88.39866666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>74.23733333333332</v>
+        <v>77.73066666666666</v>
       </c>
       <c r="J30" t="n">
-        <v>34.28233333333333</v>
+        <v>35.79483333333334</v>
       </c>
       <c r="K30" t="n">
-        <v>155.7995</v>
+        <v>152.7836666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>9703.857833333333</v>
+        <v>10149.99116666667</v>
       </c>
       <c r="M30" t="n">
         <v>13.77</v>
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9.866666666666667</v>
+        <v>9.933333333333334</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>20.13333333333333</v>
+        <v>20.06666666666667</v>
       </c>
       <c r="G31" t="n">
-        <v>100.45</v>
+        <v>100.1166666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>100.6725</v>
+        <v>100.3256666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99416666666666</v>
+        <v>90.11133333333333</v>
       </c>
       <c r="J31" t="n">
-        <v>41.51116666666667</v>
+        <v>41.62916666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>164.8906666666667</v>
+        <v>167.4803333333333</v>
       </c>
       <c r="L31" t="n">
-        <v>11646.63833333333</v>
+        <v>11729.5055</v>
       </c>
       <c r="M31" t="n">
         <v>0.31</v>
@@ -1923,31 +1923,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="E32" t="n">
-        <v>30.93333333333333</v>
+        <v>30.8</v>
       </c>
       <c r="F32" t="n">
-        <v>20.13333333333334</v>
+        <v>20.1</v>
       </c>
       <c r="G32" t="n">
-        <v>85.66666666666667</v>
+        <v>85.76666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>86.074</v>
+        <v>86.18549999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>79.34400000000001</v>
+        <v>79.08666666666666</v>
       </c>
       <c r="J32" t="n">
-        <v>35.74666666666666</v>
+        <v>35.80333333333333</v>
       </c>
       <c r="K32" t="n">
-        <v>178.01</v>
+        <v>176.231</v>
       </c>
       <c r="L32" t="n">
-        <v>10191.37066666667</v>
+        <v>10205.71116666667</v>
       </c>
       <c r="M32" t="n">
         <v>14.9</v>
@@ -1970,31 +1970,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.88888888888889</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="E33" t="n">
-        <v>30.66666666666667</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="F33" t="n">
-        <v>19.77777777777778</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>91.16666666666667</v>
+        <v>92.55555555555556</v>
       </c>
       <c r="H33" t="n">
-        <v>91.35416666666667</v>
+        <v>92.68666666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>82.10555555555555</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>37.25694444444445</v>
+        <v>38.12944444444445</v>
       </c>
       <c r="K33" t="n">
-        <v>156.8086111111111</v>
+        <v>166.6861111111111</v>
       </c>
       <c r="L33" t="n">
-        <v>10455.46388888889</v>
+        <v>10892.55611111111</v>
       </c>
       <c r="M33" t="n">
         <v>6.760000000000001</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.8</v>
+        <v>10.73333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>30.83333333333333</v>
+        <v>30.86666666666666</v>
       </c>
       <c r="F34" t="n">
-        <v>20.03333333333333</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16666666666667</v>
+        <v>95.03333333333335</v>
       </c>
       <c r="H34" t="n">
-        <v>94.58183333333334</v>
+        <v>95.46516666666668</v>
       </c>
       <c r="I34" t="n">
-        <v>81.72516666666667</v>
+        <v>82.10016666666667</v>
       </c>
       <c r="J34" t="n">
-        <v>38.33233333333333</v>
+        <v>38.67933333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>150.8651666666667</v>
+        <v>149.6791666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>10608.5025</v>
+        <v>10704.62233333333</v>
       </c>
       <c r="M34" t="n">
         <v>8.68</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11.24444444444445</v>
+        <v>11.13333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>30.57777777777778</v>
+        <v>30.8</v>
       </c>
       <c r="F35" t="n">
-        <v>19.33333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G35" t="n">
-        <v>83.25555555555555</v>
+        <v>76.36666666666666</v>
       </c>
       <c r="H35" t="n">
-        <v>83.59288888888888</v>
+        <v>76.774</v>
       </c>
       <c r="I35" t="n">
-        <v>71.71177777777778</v>
+        <v>65.619</v>
       </c>
       <c r="J35" t="n">
-        <v>33.78244444444444</v>
+        <v>30.878</v>
       </c>
       <c r="K35" t="n">
-        <v>153.9723333333334</v>
+        <v>151.6656666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>9882.199666666667</v>
+        <v>9110.279666666667</v>
       </c>
       <c r="M35" t="n">
         <v>6.29</v>
@@ -2250,31 +2250,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9.799999999999999</v>
+        <v>10.57777777777778</v>
       </c>
       <c r="E39" t="n">
-        <v>31.43333333333333</v>
+        <v>31.6</v>
       </c>
       <c r="F39" t="n">
-        <v>21.63333333333334</v>
+        <v>21.02222222222222</v>
       </c>
       <c r="G39" t="n">
-        <v>201.6166666666666</v>
+        <v>203.3111111111111</v>
       </c>
       <c r="H39" t="n">
-        <v>200.4538333333333</v>
+        <v>202.168</v>
       </c>
       <c r="I39" t="n">
-        <v>190.0153333333334</v>
+        <v>191.8786666666666</v>
       </c>
       <c r="J39" t="n">
-        <v>84.77916666666665</v>
+        <v>85.50666666666666</v>
       </c>
       <c r="K39" t="n">
-        <v>142.4715</v>
+        <v>143.4562222222222</v>
       </c>
       <c r="L39" t="n">
-        <v>22304.24533333334</v>
+        <v>22330.752</v>
       </c>
       <c r="M39" t="n">
         <v>-9.890000000000001</v>
@@ -2297,31 +2297,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>32.43333333333333</v>
+        <v>33.3</v>
       </c>
       <c r="F40" t="n">
-        <v>21.53333333333333</v>
+        <v>22.3</v>
       </c>
       <c r="G40" t="n">
-        <v>184.45</v>
+        <v>180.9166666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>183.8313333333333</v>
+        <v>180.3098333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>172.5796666666667</v>
+        <v>169.656</v>
       </c>
       <c r="J40" t="n">
-        <v>73.24083333333334</v>
+        <v>71.43083333333334</v>
       </c>
       <c r="K40" t="n">
-        <v>138.0918333333333</v>
+        <v>138.0043333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>18479.82416666667</v>
+        <v>17800.18583333333</v>
       </c>
       <c r="M40" t="n">
         <v>0.3800000000000001</v>
@@ -2353,22 +2353,22 @@
         <v>20.08888888888889</v>
       </c>
       <c r="G41" t="n">
-        <v>167.15</v>
+        <v>164.2888888888889</v>
       </c>
       <c r="H41" t="n">
-        <v>167.2286666666667</v>
+        <v>164.4431111111111</v>
       </c>
       <c r="I41" t="n">
-        <v>153.5757222222222</v>
+        <v>149.8682222222222</v>
       </c>
       <c r="J41" t="n">
-        <v>65.23661111111112</v>
+        <v>66.688</v>
       </c>
       <c r="K41" t="n">
-        <v>152.1657777777778</v>
+        <v>160.1435555555556</v>
       </c>
       <c r="L41" t="n">
-        <v>17169.45155555556</v>
+        <v>18101.88822222222</v>
       </c>
       <c r="M41" t="n">
         <v>3.66</v>
@@ -2438,31 +2438,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.76666666666667</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>30.13333333333334</v>
+        <v>30.16666666666667</v>
       </c>
       <c r="F43" t="n">
-        <v>19.36666666666667</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>192.7333333333333</v>
+        <v>184.6777777777778</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8383333333333</v>
+        <v>184.7160555555555</v>
       </c>
       <c r="I43" t="n">
-        <v>178.5888333333333</v>
+        <v>172.1781111111111</v>
       </c>
       <c r="J43" t="n">
-        <v>76.26733333333333</v>
+        <v>72.6761111111111</v>
       </c>
       <c r="K43" t="n">
-        <v>136.685</v>
+        <v>136.9151666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>19258.72233333333</v>
+        <v>18375.86588888889</v>
       </c>
       <c r="M43" t="n">
         <v>-6.55</v>
@@ -2485,31 +2485,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11.33333333333333</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>32.46666666666667</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>21.13333333333334</v>
+        <v>20.6</v>
       </c>
       <c r="G44" t="n">
-        <v>190.6333333333334</v>
+        <v>185.6833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>188.717</v>
+        <v>183.7705</v>
       </c>
       <c r="I44" t="n">
-        <v>175.2486666666667</v>
+        <v>170.2351666666667</v>
       </c>
       <c r="J44" t="n">
-        <v>77.50333333333334</v>
+        <v>75.246</v>
       </c>
       <c r="K44" t="n">
-        <v>139.3898333333333</v>
+        <v>138.7073333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>19894.96166666667</v>
+        <v>19364.12766666667</v>
       </c>
       <c r="M44" t="n">
         <v>-3.57</v>
@@ -2532,31 +2532,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8.6</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="E45" t="n">
         <v>30.93333333333333</v>
       </c>
       <c r="F45" t="n">
-        <v>22.33333333333333</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G45" t="n">
-        <v>144.6888888888889</v>
+        <v>144.9666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>144.5423333333333</v>
+        <v>144.8406666666667</v>
       </c>
       <c r="I45" t="n">
-        <v>132.3872222222222</v>
+        <v>132.835</v>
       </c>
       <c r="J45" t="n">
-        <v>56.25</v>
+        <v>56.00333333333333</v>
       </c>
       <c r="K45" t="n">
-        <v>137.9854444444444</v>
+        <v>133.0826666666667</v>
       </c>
       <c r="L45" t="n">
-        <v>14144.708</v>
+        <v>13991.36966666667</v>
       </c>
       <c r="M45" t="n">
         <v>11.84</v>
@@ -2673,31 +2673,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.16666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>18.83333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>168.25</v>
+        <v>161.5555555555555</v>
       </c>
       <c r="H48" t="n">
-        <v>168.4875</v>
+        <v>161.7888888888889</v>
       </c>
       <c r="I48" t="n">
-        <v>151.1908333333334</v>
+        <v>142.4522222222222</v>
       </c>
       <c r="J48" t="n">
-        <v>67.10583333333334</v>
+        <v>67.08111111111111</v>
       </c>
       <c r="K48" t="n">
-        <v>138.3283333333333</v>
+        <v>148.2038888888889</v>
       </c>
       <c r="L48" t="n">
-        <v>17854.01333333333</v>
+        <v>18267.37111111111</v>
       </c>
       <c r="M48" t="n">
         <v>9.33</v>
@@ -2767,31 +2767,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.5</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="E50" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F50" t="n">
-        <v>18.63333333333333</v>
+        <v>18.57777777777778</v>
       </c>
       <c r="G50" t="n">
-        <v>150.1166666666667</v>
+        <v>137.4222222222222</v>
       </c>
       <c r="H50" t="n">
-        <v>150.3356666666667</v>
+        <v>137.714</v>
       </c>
       <c r="I50" t="n">
-        <v>135.9326666666667</v>
+        <v>125.7982222222222</v>
       </c>
       <c r="J50" t="n">
-        <v>61.84733333333333</v>
+        <v>55.03399999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>166.8758333333333</v>
+        <v>168.07</v>
       </c>
       <c r="L50" t="n">
-        <v>16509.1255</v>
+        <v>14431.54244444445</v>
       </c>
       <c r="M50" t="n">
         <v>17.73</v>
@@ -2911,28 +2911,28 @@
         <v>11.9</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="G53" t="n">
-        <v>167.05</v>
+        <v>166.1333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>167.413</v>
+        <v>166.5468888888889</v>
       </c>
       <c r="I53" t="n">
-        <v>154.3688333333334</v>
+        <v>153.1399444444444</v>
       </c>
       <c r="J53" t="n">
-        <v>66.22799999999999</v>
+        <v>64.79244444444446</v>
       </c>
       <c r="K53" t="n">
-        <v>114.6476666666667</v>
+        <v>114.2071111111111</v>
       </c>
       <c r="L53" t="n">
-        <v>18196.44783333334</v>
+        <v>17474.01838888889</v>
       </c>
       <c r="M53" t="n">
         <v>10.32</v>
@@ -3052,28 +3052,28 @@
         <v>10.13333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>33.73333333333333</v>
+        <v>33.76666666666667</v>
       </c>
       <c r="F56" t="n">
-        <v>23.6</v>
+        <v>23.63333333333334</v>
       </c>
       <c r="G56" t="n">
-        <v>204.8666666666667</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>200.8993333333333</v>
+        <v>203.4086666666666</v>
       </c>
       <c r="I56" t="n">
-        <v>182.7273333333333</v>
+        <v>184.9181666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>83.46333333333332</v>
+        <v>84.97566666666665</v>
       </c>
       <c r="K56" t="n">
-        <v>128.196</v>
+        <v>130.2246666666666</v>
       </c>
       <c r="L56" t="n">
-        <v>19597.47133333333</v>
+        <v>20030.24833333333</v>
       </c>
       <c r="M56" t="inlineStr"/>
     </row>
@@ -3191,28 +3191,28 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>29.42222222222222</v>
+        <v>29.2</v>
       </c>
       <c r="F59" t="n">
-        <v>19.42222222222222</v>
+        <v>19.2</v>
       </c>
       <c r="G59" t="n">
-        <v>175.4777777777778</v>
+        <v>175.5333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>175.8385555555556</v>
+        <v>175.838</v>
       </c>
       <c r="I59" t="n">
-        <v>161.0102222222222</v>
+        <v>158.9613333333333</v>
       </c>
       <c r="J59" t="n">
-        <v>66.747</v>
+        <v>66.967</v>
       </c>
       <c r="K59" t="n">
-        <v>109.4637777777778</v>
+        <v>111.031</v>
       </c>
       <c r="L59" t="n">
-        <v>15475.89277777778</v>
+        <v>15679.98833333333</v>
       </c>
       <c r="M59" t="n">
         <v>11.92</v>
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>29.46666666666667</v>
+        <v>28.8</v>
       </c>
       <c r="F60" t="n">
-        <v>19.46666666666667</v>
+        <v>18.8</v>
       </c>
       <c r="G60" t="n">
-        <v>194.7666666666667</v>
+        <v>195.8222222222222</v>
       </c>
       <c r="H60" t="n">
-        <v>192.1516666666666</v>
+        <v>193.2233333333334</v>
       </c>
       <c r="I60" t="n">
-        <v>168.0301666666667</v>
+        <v>169.9215555555556</v>
       </c>
       <c r="J60" t="n">
-        <v>76.99133333333334</v>
+        <v>77.80244444444445</v>
       </c>
       <c r="K60" t="n">
-        <v>121.224</v>
+        <v>124.1117777777778</v>
       </c>
       <c r="L60" t="n">
-        <v>18551.19733333333</v>
+        <v>19018.72844444444</v>
       </c>
       <c r="M60" t="n">
         <v>4.04</v>
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>36.66666666666666</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>26.66666666666667</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>187.65</v>
+        <v>187.5</v>
       </c>
       <c r="H61" t="n">
-        <v>187.0491666666667</v>
+        <v>187.575</v>
       </c>
       <c r="I61" t="n">
-        <v>172.1726666666667</v>
+        <v>169.6358333333334</v>
       </c>
       <c r="J61" t="n">
-        <v>77.06150000000001</v>
+        <v>75.82916666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>132.0563333333333</v>
+        <v>133.3033333333333</v>
       </c>
       <c r="L61" t="n">
-        <v>17953.9655</v>
+        <v>18171.0675</v>
       </c>
       <c r="M61" t="n">
         <v>8.65</v>
@@ -3473,28 +3473,28 @@
         <v>10.26666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>31.9</v>
+        <v>31.95555555555556</v>
       </c>
       <c r="F65" t="n">
-        <v>21.63333333333334</v>
+        <v>21.68888888888889</v>
       </c>
       <c r="G65" t="n">
-        <v>185.15</v>
+        <v>182.9555555555555</v>
       </c>
       <c r="H65" t="n">
-        <v>181.8023333333333</v>
+        <v>179.6317777777778</v>
       </c>
       <c r="I65" t="n">
-        <v>157.4671666666667</v>
+        <v>156.0602222222222</v>
       </c>
       <c r="J65" t="n">
-        <v>73.20566666666667</v>
+        <v>72.65844444444444</v>
       </c>
       <c r="K65" t="n">
-        <v>130.8016666666666</v>
+        <v>134.2611111111111</v>
       </c>
       <c r="L65" t="n">
-        <v>17313.23833333333</v>
+        <v>17220.87555555555</v>
       </c>
       <c r="M65" t="n">
         <v>9.24</v>
@@ -3526,22 +3526,22 @@
         <v>20.33333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>178.8333333333333</v>
+        <v>181.8055555555555</v>
       </c>
       <c r="H66" t="n">
-        <v>179.1908333333333</v>
+        <v>182.1808333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>152.6141666666666</v>
+        <v>153.9086111111111</v>
       </c>
       <c r="J66" t="n">
-        <v>68.94916666666667</v>
+        <v>70.54527777777778</v>
       </c>
       <c r="K66" t="n">
-        <v>117.4841666666667</v>
+        <v>121.9452777777778</v>
       </c>
       <c r="L66" t="n">
-        <v>16586.2925</v>
+        <v>17200.12944444445</v>
       </c>
       <c r="M66" t="n">
         <v>9.73</v>
@@ -3661,28 +3661,28 @@
         <v>10.4</v>
       </c>
       <c r="E69" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F69" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="G69" t="n">
-        <v>175.1</v>
+        <v>176.0722222222222</v>
       </c>
       <c r="H69" t="n">
-        <v>175.2615</v>
+        <v>176.2907777777778</v>
       </c>
       <c r="I69" t="n">
-        <v>158.0936666666667</v>
+        <v>157.4107222222222</v>
       </c>
       <c r="J69" t="n">
-        <v>67.2435</v>
+        <v>67.30616666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>117.4796666666667</v>
+        <v>117.4805</v>
       </c>
       <c r="L69" t="n">
-        <v>15773.64083333333</v>
+        <v>15843.12883333333</v>
       </c>
       <c r="M69" t="n">
         <v>13.83</v>
@@ -3705,31 +3705,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.16666666666667</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="E70" t="n">
-        <v>31.93333333333333</v>
+        <v>31.82222222222222</v>
       </c>
       <c r="F70" t="n">
-        <v>21.76666666666667</v>
+        <v>21.6</v>
       </c>
       <c r="G70" t="n">
-        <v>181.0333333333333</v>
+        <v>180.6444444444445</v>
       </c>
       <c r="H70" t="n">
-        <v>180.5231666666666</v>
+        <v>180.1695555555555</v>
       </c>
       <c r="I70" t="n">
-        <v>154.8748333333333</v>
+        <v>153.2817777777778</v>
       </c>
       <c r="J70" t="n">
-        <v>70.49866666666667</v>
+        <v>70.72866666666665</v>
       </c>
       <c r="K70" t="n">
-        <v>115.2646666666667</v>
+        <v>115.6713333333333</v>
       </c>
       <c r="L70" t="n">
-        <v>16438.19133333333</v>
+        <v>16579.83022222222</v>
       </c>
       <c r="M70" t="n">
         <v>9.91</v>
@@ -3755,28 +3755,28 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>31.76666666666667</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F71" t="n">
-        <v>21.76666666666667</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G71" t="n">
-        <v>182.5666666666667</v>
+        <v>180.4333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>181.756</v>
+        <v>180.6656666666667</v>
       </c>
       <c r="I71" t="n">
-        <v>158.362</v>
+        <v>155.4498333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>71.57350000000001</v>
+        <v>69.15333333333332</v>
       </c>
       <c r="K71" t="n">
-        <v>119.8245</v>
+        <v>117.7941666666667</v>
       </c>
       <c r="L71" t="n">
-        <v>17104.75683333333</v>
+        <v>16706.2505</v>
       </c>
       <c r="M71" t="n">
         <v>11.26</v>
@@ -3799,31 +3799,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.26666666666667</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>29.73333333333333</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="F72" t="n">
-        <v>19.46666666666667</v>
+        <v>19.5</v>
       </c>
       <c r="G72" t="n">
-        <v>174.4666666666667</v>
+        <v>175.3833333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>174.7585</v>
+        <v>175.6638333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>150.7978333333333</v>
+        <v>150.7081666666667</v>
       </c>
       <c r="J72" t="n">
-        <v>66.03733333333334</v>
+        <v>66.331</v>
       </c>
       <c r="K72" t="n">
-        <v>108.116</v>
+        <v>107.3995</v>
       </c>
       <c r="L72" t="n">
-        <v>15276.7295</v>
+        <v>15342.123</v>
       </c>
       <c r="M72" t="n">
         <v>16.11</v>
@@ -3846,31 +3846,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9.266666666666667</v>
+        <v>9.155555555555557</v>
       </c>
       <c r="E73" t="n">
         <v>30.4</v>
       </c>
       <c r="F73" t="n">
-        <v>21.13333333333333</v>
+        <v>21.24444444444444</v>
       </c>
       <c r="G73" t="n">
-        <v>144.5166666666667</v>
+        <v>143.2666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>144.8001666666667</v>
+        <v>143.5982222222222</v>
       </c>
       <c r="I73" t="n">
-        <v>129.1891666666667</v>
+        <v>129.2822222222222</v>
       </c>
       <c r="J73" t="n">
-        <v>53.90083333333334</v>
+        <v>53.38555555555556</v>
       </c>
       <c r="K73" t="n">
-        <v>127.4826666666667</v>
+        <v>127.3448888888889</v>
       </c>
       <c r="L73" t="n">
-        <v>13220.12483333333</v>
+        <v>13163.44733333333</v>
       </c>
       <c r="M73" t="n">
         <v>30.27</v>
@@ -3938,31 +3938,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10.13333333333333</v>
+        <v>10.1</v>
       </c>
       <c r="E75" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F75" t="n">
-        <v>17.06666666666667</v>
+        <v>16.7</v>
       </c>
       <c r="G75" t="n">
-        <v>132.2833333333333</v>
+        <v>128.2833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>132.5151666666667</v>
+        <v>128.5688333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>121.8573333333333</v>
+        <v>117.8888333333333</v>
       </c>
       <c r="J75" t="n">
-        <v>48.60166666666667</v>
+        <v>46.98866666666667</v>
       </c>
       <c r="K75" t="n">
-        <v>99.2355</v>
+        <v>100.5766666666667</v>
       </c>
       <c r="L75" t="n">
-        <v>11461.109</v>
+        <v>11326.10283333333</v>
       </c>
       <c r="M75" t="n">
         <v>-1.18</v>
@@ -3985,31 +3985,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10.48888888888889</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="E76" t="n">
-        <v>27.33333333333333</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="F76" t="n">
-        <v>16.84444444444444</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="G76" t="n">
-        <v>110.2666666666667</v>
+        <v>99.80555555555556</v>
       </c>
       <c r="H76" t="n">
-        <v>110.4355555555555</v>
+        <v>99.96305555555556</v>
       </c>
       <c r="I76" t="n">
-        <v>101.5671111111111</v>
+        <v>91.01944444444445</v>
       </c>
       <c r="J76" t="n">
-        <v>37.70066666666667</v>
+        <v>34.19916666666666</v>
       </c>
       <c r="K76" t="n">
-        <v>95.49399999999999</v>
+        <v>99.96138888888889</v>
       </c>
       <c r="L76" t="n">
-        <v>8186.059777777778</v>
+        <v>7596.720833333333</v>
       </c>
       <c r="M76" t="n">
         <v>10.85</v>
@@ -4035,28 +4035,28 @@
         <v>10.63333333333333</v>
       </c>
       <c r="E77" t="n">
-        <v>30</v>
+        <v>29.94444444444444</v>
       </c>
       <c r="F77" t="n">
-        <v>19.36666666666667</v>
+        <v>19.31111111111111</v>
       </c>
       <c r="G77" t="n">
-        <v>115.0166666666667</v>
+        <v>114.9055555555556</v>
       </c>
       <c r="H77" t="n">
-        <v>114.9086666666667</v>
+        <v>114.8339444444445</v>
       </c>
       <c r="I77" t="n">
-        <v>103.5738333333333</v>
+        <v>103.7138333333333</v>
       </c>
       <c r="J77" t="n">
-        <v>39.28033333333334</v>
+        <v>38.87088888888889</v>
       </c>
       <c r="K77" t="n">
-        <v>104.4635</v>
+        <v>102.4887777777778</v>
       </c>
       <c r="L77" t="n">
-        <v>8583.036833333334</v>
+        <v>8312.745166666666</v>
       </c>
       <c r="M77" t="n">
         <v>10.3</v>
@@ -4135,22 +4135,22 @@
         <v>18.53333333333333</v>
       </c>
       <c r="G79" t="n">
-        <v>127.0333333333333</v>
+        <v>125.65</v>
       </c>
       <c r="H79" t="n">
-        <v>127.2453333333333</v>
+        <v>125.8926666666667</v>
       </c>
       <c r="I79" t="n">
-        <v>115.6936666666667</v>
+        <v>114.609</v>
       </c>
       <c r="J79" t="n">
-        <v>43.76366666666667</v>
+        <v>42.95016666666667</v>
       </c>
       <c r="K79" t="n">
-        <v>99.64366666666666</v>
+        <v>98.70466666666665</v>
       </c>
       <c r="L79" t="n">
-        <v>9692.556333333334</v>
+        <v>9504.882333333333</v>
       </c>
       <c r="M79" t="n">
         <v>1.84</v>
@@ -4182,22 +4182,22 @@
         <v>16.7</v>
       </c>
       <c r="G80" t="n">
-        <v>133.3666666666667</v>
+        <v>132.2666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>133.683</v>
+        <v>132.5933333333333</v>
       </c>
       <c r="I80" t="n">
-        <v>126.1001666666667</v>
+        <v>124.9096666666667</v>
       </c>
       <c r="J80" t="n">
-        <v>46.20316666666667</v>
+        <v>45.88216666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>87.73066666666666</v>
+        <v>88.38</v>
       </c>
       <c r="L80" t="n">
-        <v>9957.5615</v>
+        <v>9922.765833333333</v>
       </c>
       <c r="M80" t="n">
         <v>-3.200000000000001</v>
@@ -4223,28 +4223,28 @@
         <v>10.96666666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>28.06666666666667</v>
+        <v>27.9</v>
       </c>
       <c r="F81" t="n">
-        <v>17.1</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="G81" t="n">
-        <v>116.6</v>
+        <v>104.4333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>117.0331666666667</v>
+        <v>104.8756666666667</v>
       </c>
       <c r="I81" t="n">
-        <v>106.4758333333333</v>
+        <v>94.85000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>39.33383333333333</v>
+        <v>36.43383333333333</v>
       </c>
       <c r="K81" t="n">
-        <v>86.9055</v>
+        <v>99.57466666666666</v>
       </c>
       <c r="L81" t="n">
-        <v>8058.2</v>
+        <v>8017.179166666666</v>
       </c>
       <c r="M81" t="n">
         <v>8.59</v>
@@ -4270,28 +4270,28 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>30.9</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="F82" t="n">
-        <v>20.23333333333333</v>
+        <v>18.4</v>
       </c>
       <c r="G82" t="n">
-        <v>111.65</v>
+        <v>109.15</v>
       </c>
       <c r="H82" t="n">
-        <v>111.768</v>
+        <v>109.2813333333333</v>
       </c>
       <c r="I82" t="n">
-        <v>104.414</v>
+        <v>102.3198333333333</v>
       </c>
       <c r="J82" t="n">
-        <v>39.02683333333334</v>
+        <v>37.7985</v>
       </c>
       <c r="K82" t="n">
-        <v>91.70650000000001</v>
+        <v>93.61483333333332</v>
       </c>
       <c r="L82" t="n">
-        <v>8402.587333333333</v>
+        <v>8416.849833333334</v>
       </c>
       <c r="M82" t="n">
         <v>12.53</v>
@@ -4458,31 +4458,31 @@
         <v>10.93333333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>16.76666666666667</v>
+        <v>16.36666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>125.7</v>
+        <v>123.9666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>126.0215</v>
+        <v>124.3333333333333</v>
       </c>
       <c r="I86" t="n">
-        <v>117.5661666666667</v>
+        <v>115.66</v>
       </c>
       <c r="J86" t="n">
-        <v>43.3305</v>
+        <v>43.06816666666666</v>
       </c>
       <c r="K86" t="n">
-        <v>93.78800000000001</v>
+        <v>96.673</v>
       </c>
       <c r="L86" t="n">
-        <v>9930.993833333334</v>
+        <v>10148.5215</v>
       </c>
       <c r="M86" t="n">
-        <v>7.159999999999999</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="87">
@@ -4505,28 +4505,28 @@
         <v>10.8</v>
       </c>
       <c r="E87" t="n">
-        <v>28.43333333333333</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="F87" t="n">
-        <v>17.63333333333333</v>
+        <v>17.46666666666667</v>
       </c>
       <c r="G87" t="n">
-        <v>115.05</v>
+        <v>109.8</v>
       </c>
       <c r="H87" t="n">
-        <v>115.17</v>
+        <v>109.8222222222222</v>
       </c>
       <c r="I87" t="n">
-        <v>104.7865</v>
+        <v>100.3517777777778</v>
       </c>
       <c r="J87" t="n">
-        <v>40.18</v>
+        <v>38.93</v>
       </c>
       <c r="K87" t="n">
-        <v>113.9301666666667</v>
+        <v>121.1237777777778</v>
       </c>
       <c r="L87" t="n">
-        <v>9057.355333333333</v>
+        <v>9201.116444444444</v>
       </c>
       <c r="M87" t="n">
         <v>12.23</v>
@@ -4646,28 +4646,28 @@
         <v>11.06666666666667</v>
       </c>
       <c r="E90" t="n">
-        <v>30.3</v>
+        <v>30.35555555555555</v>
       </c>
       <c r="F90" t="n">
-        <v>19.23333333333333</v>
+        <v>19.28888888888889</v>
       </c>
       <c r="G90" t="n">
-        <v>114.2833333333333</v>
+        <v>114.4222222222222</v>
       </c>
       <c r="H90" t="n">
-        <v>114.4956666666667</v>
+        <v>114.5795555555555</v>
       </c>
       <c r="I90" t="n">
-        <v>105.7601666666666</v>
+        <v>106.7482222222222</v>
       </c>
       <c r="J90" t="n">
-        <v>40.74016666666667</v>
+        <v>40.60377777777779</v>
       </c>
       <c r="K90" t="n">
-        <v>117.4501666666667</v>
+        <v>118.5615555555556</v>
       </c>
       <c r="L90" t="n">
-        <v>9730.3935</v>
+        <v>9691.003777777778</v>
       </c>
       <c r="M90" t="n">
         <v>13.09</v>
@@ -4876,31 +4876,31 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.16666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E95" t="n">
-        <v>31.86666666666666</v>
+        <v>31.6</v>
       </c>
       <c r="F95" t="n">
-        <v>21.7</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="G95" t="n">
-        <v>117.3833333333333</v>
+        <v>113.5333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>115.8581666666667</v>
+        <v>111.8457777777778</v>
       </c>
       <c r="I95" t="n">
-        <v>107.0335</v>
+        <v>104.5035555555556</v>
       </c>
       <c r="J95" t="n">
-        <v>48.0785</v>
+        <v>45.97277777777777</v>
       </c>
       <c r="K95" t="n">
-        <v>152.9241666666667</v>
+        <v>149.5978888888889</v>
       </c>
       <c r="L95" t="n">
-        <v>12358.376</v>
+        <v>11756.80222222222</v>
       </c>
       <c r="M95" t="n">
         <v>1.33</v>
@@ -5020,28 +5020,28 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E98" t="n">
-        <v>31.3</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="F98" t="n">
-        <v>20.63333333333333</v>
+        <v>21</v>
       </c>
       <c r="G98" t="n">
-        <v>109.95</v>
+        <v>108.75</v>
       </c>
       <c r="H98" t="n">
-        <v>109.9665</v>
+        <v>108.7091666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>100.2551666666667</v>
+        <v>98.48333333333333</v>
       </c>
       <c r="J98" t="n">
-        <v>44.84616666666667</v>
+        <v>44.20416666666667</v>
       </c>
       <c r="K98" t="n">
-        <v>137.9931666666667</v>
+        <v>137.2266666666667</v>
       </c>
       <c r="L98" t="n">
-        <v>11326.7255</v>
+        <v>11088.49833333333</v>
       </c>
       <c r="M98" t="n">
         <v>4.58</v>
@@ -5064,31 +5064,31 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10.26666666666667</v>
+        <v>10.8</v>
       </c>
       <c r="E99" t="n">
-        <v>30.43333333333333</v>
+        <v>30.46666666666667</v>
       </c>
       <c r="F99" t="n">
-        <v>20.16666666666667</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G99" t="n">
-        <v>102.6166666666667</v>
+        <v>102.9666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>102.8413333333333</v>
+        <v>103.2103333333333</v>
       </c>
       <c r="I99" t="n">
-        <v>93.94933333333334</v>
+        <v>95.18433333333333</v>
       </c>
       <c r="J99" t="n">
-        <v>40.81016666666667</v>
+        <v>40.51516666666667</v>
       </c>
       <c r="K99" t="n">
-        <v>139.9143333333333</v>
+        <v>133.9053333333333</v>
       </c>
       <c r="L99" t="n">
-        <v>10337.1405</v>
+        <v>10148.74016666667</v>
       </c>
       <c r="M99" t="n">
         <v>14.05</v>
@@ -5114,28 +5114,28 @@
         <v>10.8</v>
       </c>
       <c r="E100" t="n">
-        <v>31.73333333333333</v>
+        <v>32.8</v>
       </c>
       <c r="F100" t="n">
-        <v>20.93333333333333</v>
+        <v>22</v>
       </c>
       <c r="G100" t="n">
-        <v>102.7333333333333</v>
+        <v>96.57777777777778</v>
       </c>
       <c r="H100" t="n">
-        <v>102.5053333333333</v>
+        <v>96.14088888888888</v>
       </c>
       <c r="I100" t="n">
-        <v>94.682</v>
+        <v>88.21288888888888</v>
       </c>
       <c r="J100" t="n">
-        <v>41.10933333333333</v>
+        <v>38.44955555555556</v>
       </c>
       <c r="K100" t="n">
-        <v>139.3986666666667</v>
+        <v>141.2922222222222</v>
       </c>
       <c r="L100" t="n">
-        <v>10359.218</v>
+        <v>9707.60311111111</v>
       </c>
       <c r="M100" t="n">
         <v>14.44</v>
@@ -5158,31 +5158,31 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10.96666666666667</v>
+        <v>10.93333333333333</v>
       </c>
       <c r="E101" t="n">
-        <v>30.26666666666667</v>
+        <v>30.3</v>
       </c>
       <c r="F101" t="n">
-        <v>19.3</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="G101" t="n">
-        <v>99.45</v>
+        <v>98.76666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>99.58183333333334</v>
+        <v>98.9165</v>
       </c>
       <c r="I101" t="n">
-        <v>90.02666666666666</v>
+        <v>90.0655</v>
       </c>
       <c r="J101" t="n">
-        <v>39.4785</v>
+        <v>39.15266666666667</v>
       </c>
       <c r="K101" t="n">
-        <v>133.9608333333333</v>
+        <v>133.9133333333333</v>
       </c>
       <c r="L101" t="n">
-        <v>10134.0795</v>
+        <v>10039.142</v>
       </c>
       <c r="M101" t="n">
         <v>15.16</v>
@@ -5346,31 +5346,31 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>10.43333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="E105" t="n">
         <v>30.16666666666667</v>
       </c>
       <c r="F105" t="n">
-        <v>19.73333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G105" t="n">
-        <v>101.4833333333333</v>
+        <v>100.9722222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>101.7296666666667</v>
+        <v>101.2488888888889</v>
       </c>
       <c r="I105" t="n">
-        <v>93.79883333333333</v>
+        <v>94.68166666666667</v>
       </c>
       <c r="J105" t="n">
-        <v>40.2165</v>
+        <v>40.21777777777778</v>
       </c>
       <c r="K105" t="n">
-        <v>135.8126666666667</v>
+        <v>135.8158333333333</v>
       </c>
       <c r="L105" t="n">
-        <v>10196.1155</v>
+        <v>10211.77861111111</v>
       </c>
       <c r="M105" t="n">
         <v>14.99</v>
@@ -5440,31 +5440,31 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>10.44444444444444</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E107" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F107" t="n">
-        <v>19.68888888888889</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="G107" t="n">
-        <v>98.48888888888889</v>
+        <v>97.76666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>98.83955555555555</v>
+        <v>98.169</v>
       </c>
       <c r="I107" t="n">
-        <v>85.83088888888891</v>
+        <v>83.65033333333334</v>
       </c>
       <c r="J107" t="n">
-        <v>38.77333333333333</v>
+        <v>38.735</v>
       </c>
       <c r="K107" t="n">
-        <v>137.7808888888889</v>
+        <v>137.3636666666667</v>
       </c>
       <c r="L107" t="n">
-        <v>9977.551555555556</v>
+        <v>10007.93433333333</v>
       </c>
       <c r="M107" t="n">
         <v>20.7</v>
@@ -5534,31 +5534,31 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8.733333333333333</v>
+        <v>8.933333333333334</v>
       </c>
       <c r="E109" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F109" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="G109" t="n">
-        <v>73.8</v>
+        <v>74.3</v>
       </c>
       <c r="H109" t="n">
-        <v>73.67733333333332</v>
+        <v>74.26949999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>66.98199999999999</v>
+        <v>67.53516666666667</v>
       </c>
       <c r="J109" t="n">
-        <v>28.06333333333333</v>
+        <v>28.3675</v>
       </c>
       <c r="K109" t="n">
-        <v>150.39</v>
+        <v>150.7893333333333</v>
       </c>
       <c r="L109" t="n">
-        <v>7265.493333333335</v>
+        <v>7362.093333333333</v>
       </c>
       <c r="M109" t="n">
         <v>36.17</v>

--- a/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +538,6 @@
       <c r="L2" t="n">
         <v>7962.66</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,9 +582,6 @@
       <c r="L3" t="n">
         <v>7867.354444444444</v>
       </c>
-      <c r="M3" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -635,9 +626,6 @@
       <c r="L4" t="n">
         <v>9332.671666666667</v>
       </c>
-      <c r="M4" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,9 +670,6 @@
       <c r="L5" t="n">
         <v>9596.530000000001</v>
       </c>
-      <c r="M5" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,9 +714,6 @@
       <c r="L6" t="n">
         <v>9392.641333333333</v>
       </c>
-      <c r="M6" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,9 +758,6 @@
       <c r="L7" t="n">
         <v>9239.347166666666</v>
       </c>
-      <c r="M7" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,9 +802,6 @@
       <c r="L8" t="n">
         <v>9302.633333333333</v>
       </c>
-      <c r="M8" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,9 +846,6 @@
       <c r="L9" t="n">
         <v>7461.972500000001</v>
       </c>
-      <c r="M9" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -917,9 +890,6 @@
       <c r="L10" t="n">
         <v>6408.418000000001</v>
       </c>
-      <c r="M10" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,9 +934,6 @@
       <c r="L11" t="n">
         <v>6892.387333333333</v>
       </c>
-      <c r="M11" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1011,9 +978,6 @@
       <c r="L12" t="n">
         <v>6936.520666666666</v>
       </c>
-      <c r="M12" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,9 +1022,6 @@
       <c r="L13" t="n">
         <v>6196.159222222222</v>
       </c>
-      <c r="M13" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1105,9 +1066,6 @@
       <c r="L14" t="n">
         <v>6133.0575</v>
       </c>
-      <c r="M14" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,9 +1110,6 @@
       <c r="L15" t="n">
         <v>8513.187333333333</v>
       </c>
-      <c r="M15" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1199,9 +1154,6 @@
       <c r="L16" t="n">
         <v>8159.928666666667</v>
       </c>
-      <c r="M16" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,9 +1198,6 @@
       <c r="L17" t="n">
         <v>6480.5925</v>
       </c>
-      <c r="M17" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1293,9 +1242,6 @@
       <c r="L18" t="n">
         <v>7058.815333333335</v>
       </c>
-      <c r="M18" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1340,9 +1286,6 @@
       <c r="L19" t="n">
         <v>6240.318666666666</v>
       </c>
-      <c r="M19" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1387,7 +1330,6 @@
       <c r="L20" t="n">
         <v>11757.78466666667</v>
       </c>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,9 +1374,6 @@
       <c r="L21" t="n">
         <v>10966.63866666667</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.4000000000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,9 +1418,6 @@
       <c r="L22" t="n">
         <v>12606.23688888889</v>
       </c>
-      <c r="M22" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,9 +1462,6 @@
       <c r="L23" t="n">
         <v>12476.80916666667</v>
       </c>
-      <c r="M23" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,9 +1506,6 @@
       <c r="L24" t="n">
         <v>13700.91416666667</v>
       </c>
-      <c r="M24" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,9 +1550,6 @@
       <c r="L25" t="n">
         <v>12932.40866666667</v>
       </c>
-      <c r="M25" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,9 +1594,6 @@
       <c r="L26" t="n">
         <v>9685.138666666668</v>
       </c>
-      <c r="M26" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,9 +1638,6 @@
       <c r="L27" t="n">
         <v>10788.2825</v>
       </c>
-      <c r="M27" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,9 +1682,6 @@
       <c r="L28" t="n">
         <v>10909.15416666667</v>
       </c>
-      <c r="M28" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,9 +1726,6 @@
       <c r="L29" t="n">
         <v>10656.50133333333</v>
       </c>
-      <c r="M29" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,9 +1770,6 @@
       <c r="L30" t="n">
         <v>10149.99116666667</v>
       </c>
-      <c r="M30" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,9 +1814,6 @@
       <c r="L31" t="n">
         <v>11729.5055</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,9 +1858,6 @@
       <c r="L32" t="n">
         <v>10205.71116666667</v>
       </c>
-      <c r="M32" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,9 +1902,6 @@
       <c r="L33" t="n">
         <v>10892.55611111111</v>
       </c>
-      <c r="M33" t="n">
-        <v>6.760000000000001</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,9 +1946,6 @@
       <c r="L34" t="n">
         <v>10704.62233333333</v>
       </c>
-      <c r="M34" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2090,9 +1990,6 @@
       <c r="L35" t="n">
         <v>9110.279666666667</v>
       </c>
-      <c r="M35" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,9 +2034,6 @@
       <c r="L36" t="n">
         <v>10308.43083333333</v>
       </c>
-      <c r="M36" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2184,9 +2078,6 @@
       <c r="L37" t="n">
         <v>8054.064833333334</v>
       </c>
-      <c r="M37" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2231,7 +2122,6 @@
       <c r="L38" t="n">
         <v>15974.93488888889</v>
       </c>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2276,9 +2166,6 @@
       <c r="L39" t="n">
         <v>22330.752</v>
       </c>
-      <c r="M39" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2323,9 +2210,6 @@
       <c r="L40" t="n">
         <v>17800.18583333333</v>
       </c>
-      <c r="M40" t="n">
-        <v>0.3800000000000001</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2370,9 +2254,6 @@
       <c r="L41" t="n">
         <v>18101.88822222222</v>
       </c>
-      <c r="M41" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,9 +2298,6 @@
       <c r="L42" t="n">
         <v>19140.04683333333</v>
       </c>
-      <c r="M42" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2464,9 +2342,6 @@
       <c r="L43" t="n">
         <v>18375.86588888889</v>
       </c>
-      <c r="M43" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2511,9 +2386,6 @@
       <c r="L44" t="n">
         <v>19364.12766666667</v>
       </c>
-      <c r="M44" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,9 +2430,6 @@
       <c r="L45" t="n">
         <v>13991.36966666667</v>
       </c>
-      <c r="M45" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2605,9 +2474,6 @@
       <c r="L46" t="n">
         <v>16637.5825</v>
       </c>
-      <c r="M46" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2652,9 +2518,6 @@
       <c r="L47" t="n">
         <v>16972.12866666667</v>
       </c>
-      <c r="M47" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2699,9 +2562,6 @@
       <c r="L48" t="n">
         <v>18267.37111111111</v>
       </c>
-      <c r="M48" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2746,9 +2606,6 @@
       <c r="L49" t="n">
         <v>18744.25333333333</v>
       </c>
-      <c r="M49" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2793,9 +2650,6 @@
       <c r="L50" t="n">
         <v>14431.54244444445</v>
       </c>
-      <c r="M50" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2840,9 +2694,6 @@
       <c r="L51" t="n">
         <v>14771.67483333333</v>
       </c>
-      <c r="M51" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2887,9 +2738,6 @@
       <c r="L52" t="n">
         <v>17347.48088888889</v>
       </c>
-      <c r="M52" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2934,9 +2782,6 @@
       <c r="L53" t="n">
         <v>17474.01838888889</v>
       </c>
-      <c r="M53" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2981,9 +2826,6 @@
       <c r="L54" t="n">
         <v>18712.48416666667</v>
       </c>
-      <c r="M54" t="n">
-        <v>7.580000000000001</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3028,9 +2870,6 @@
       <c r="L55" t="n">
         <v>17167.09255555556</v>
       </c>
-      <c r="M55" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3075,7 +2914,6 @@
       <c r="L56" t="n">
         <v>20030.24833333333</v>
       </c>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3120,9 +2958,6 @@
       <c r="L57" t="n">
         <v>17011.55166666667</v>
       </c>
-      <c r="M57" t="n">
-        <v>5.900000000000001</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3167,9 +3002,6 @@
       <c r="L58" t="n">
         <v>17646.813</v>
       </c>
-      <c r="M58" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3214,9 +3046,6 @@
       <c r="L59" t="n">
         <v>15679.98833333333</v>
       </c>
-      <c r="M59" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3261,9 +3090,6 @@
       <c r="L60" t="n">
         <v>19018.72844444444</v>
       </c>
-      <c r="M60" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3308,9 +3134,6 @@
       <c r="L61" t="n">
         <v>18171.0675</v>
       </c>
-      <c r="M61" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3355,9 +3178,6 @@
       <c r="L62" t="n">
         <v>17297.31716666666</v>
       </c>
-      <c r="M62" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3402,9 +3222,6 @@
       <c r="L63" t="n">
         <v>16211.46766666667</v>
       </c>
-      <c r="M63" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3449,9 +3266,6 @@
       <c r="L64" t="n">
         <v>17069.2175</v>
       </c>
-      <c r="M64" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3496,9 +3310,6 @@
       <c r="L65" t="n">
         <v>17220.87555555555</v>
       </c>
-      <c r="M65" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3543,9 +3354,6 @@
       <c r="L66" t="n">
         <v>17200.12944444445</v>
       </c>
-      <c r="M66" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3590,9 +3398,6 @@
       <c r="L67" t="n">
         <v>16552.332</v>
       </c>
-      <c r="M67" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,9 +3442,6 @@
       <c r="L68" t="n">
         <v>16975.94366666667</v>
       </c>
-      <c r="M68" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3684,9 +3486,6 @@
       <c r="L69" t="n">
         <v>15843.12883333333</v>
       </c>
-      <c r="M69" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3731,9 +3530,6 @@
       <c r="L70" t="n">
         <v>16579.83022222222</v>
       </c>
-      <c r="M70" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3778,9 +3574,6 @@
       <c r="L71" t="n">
         <v>16706.2505</v>
       </c>
-      <c r="M71" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3825,9 +3618,6 @@
       <c r="L72" t="n">
         <v>15342.123</v>
       </c>
-      <c r="M72" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3872,9 +3662,6 @@
       <c r="L73" t="n">
         <v>13163.44733333333</v>
       </c>
-      <c r="M73" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3919,7 +3706,6 @@
       <c r="L74" t="n">
         <v>9364.746444444443</v>
       </c>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3964,9 +3750,6 @@
       <c r="L75" t="n">
         <v>11326.10283333333</v>
       </c>
-      <c r="M75" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4011,9 +3794,6 @@
       <c r="L76" t="n">
         <v>7596.720833333333</v>
       </c>
-      <c r="M76" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4058,9 +3838,6 @@
       <c r="L77" t="n">
         <v>8312.745166666666</v>
       </c>
-      <c r="M77" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4105,9 +3882,6 @@
       <c r="L78" t="n">
         <v>10473.38233333333</v>
       </c>
-      <c r="M78" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4152,9 +3926,6 @@
       <c r="L79" t="n">
         <v>9504.882333333333</v>
       </c>
-      <c r="M79" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4199,9 +3970,6 @@
       <c r="L80" t="n">
         <v>9922.765833333333</v>
       </c>
-      <c r="M80" t="n">
-        <v>-3.200000000000001</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4246,9 +4014,6 @@
       <c r="L81" t="n">
         <v>8017.179166666666</v>
       </c>
-      <c r="M81" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4293,9 +4058,6 @@
       <c r="L82" t="n">
         <v>8416.849833333334</v>
       </c>
-      <c r="M82" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4340,9 +4102,6 @@
       <c r="L83" t="n">
         <v>9005.830833333333</v>
       </c>
-      <c r="M83" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4387,9 +4146,6 @@
       <c r="L84" t="n">
         <v>9153.603500000001</v>
       </c>
-      <c r="M84" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4434,9 +4190,6 @@
       <c r="L85" t="n">
         <v>8446.468055555555</v>
       </c>
-      <c r="M85" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4481,9 +4234,6 @@
       <c r="L86" t="n">
         <v>10148.5215</v>
       </c>
-      <c r="M86" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4528,9 +4278,6 @@
       <c r="L87" t="n">
         <v>9201.116444444444</v>
       </c>
-      <c r="M87" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4575,9 +4322,6 @@
       <c r="L88" t="n">
         <v>7220.7835</v>
       </c>
-      <c r="M88" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4622,9 +4366,6 @@
       <c r="L89" t="n">
         <v>9912.729999999998</v>
       </c>
-      <c r="M89" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4669,9 +4410,6 @@
       <c r="L90" t="n">
         <v>9691.003777777778</v>
       </c>
-      <c r="M90" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4716,9 +4454,6 @@
       <c r="L91" t="n">
         <v>7638.298444444445</v>
       </c>
-      <c r="M91" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4763,7 +4498,6 @@
       <c r="L92" t="n">
         <v>12911.34333333333</v>
       </c>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,9 +4542,6 @@
       <c r="L93" t="n">
         <v>11681.01566666667</v>
       </c>
-      <c r="M93" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,9 +4586,6 @@
       <c r="L94" t="n">
         <v>10936.513</v>
       </c>
-      <c r="M94" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,9 +4630,6 @@
       <c r="L95" t="n">
         <v>11756.80222222222</v>
       </c>
-      <c r="M95" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,9 +4674,6 @@
       <c r="L96" t="n">
         <v>11430.44066666667</v>
       </c>
-      <c r="M96" t="n">
-        <v>5.650000000000001</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,9 +4718,6 @@
       <c r="L97" t="n">
         <v>11159.82416666667</v>
       </c>
-      <c r="M97" t="n">
-        <v>7.72</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,9 +4762,6 @@
       <c r="L98" t="n">
         <v>11088.49833333333</v>
       </c>
-      <c r="M98" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,9 +4806,6 @@
       <c r="L99" t="n">
         <v>10148.74016666667</v>
       </c>
-      <c r="M99" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,9 +4850,6 @@
       <c r="L100" t="n">
         <v>9707.60311111111</v>
       </c>
-      <c r="M100" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,9 +4894,6 @@
       <c r="L101" t="n">
         <v>10039.142</v>
       </c>
-      <c r="M101" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,9 +4938,6 @@
       <c r="L102" t="n">
         <v>10939.91983333333</v>
       </c>
-      <c r="M102" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,9 +4982,6 @@
       <c r="L103" t="n">
         <v>9958.477277777778</v>
       </c>
-      <c r="M103" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,9 +5026,6 @@
       <c r="L104" t="n">
         <v>11150.91666666667</v>
       </c>
-      <c r="M104" t="n">
-        <v>6.010000000000001</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,9 +5070,6 @@
       <c r="L105" t="n">
         <v>10211.77861111111</v>
       </c>
-      <c r="M105" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5419,9 +5114,6 @@
       <c r="L106" t="n">
         <v>10623.79283333333</v>
       </c>
-      <c r="M106" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5466,9 +5158,6 @@
       <c r="L107" t="n">
         <v>10007.93433333333</v>
       </c>
-      <c r="M107" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5513,9 +5202,6 @@
       <c r="L108" t="n">
         <v>10017.76166666667</v>
       </c>
-      <c r="M108" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5559,9 +5245,6 @@
       </c>
       <c r="L109" t="n">
         <v>7362.093333333333</v>
-      </c>
-      <c r="M109" t="n">
-        <v>36.17</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_DATE.xlsx
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.61111111111111</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>30.55555555555556</v>
+        <v>30.46666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>18.94444444444444</v>
+        <v>18.9</v>
       </c>
       <c r="G3" t="n">
-        <v>70.72222222222223</v>
+        <v>71.36666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>71.06777777777778</v>
+        <v>71.62599999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>63.90527777777777</v>
+        <v>64.70216666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>28.33166666666667</v>
+        <v>28.59833333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>172.3091666666667</v>
+        <v>164.5958333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>7867.354444444444</v>
+        <v>8015.784666666666</v>
       </c>
     </row>
     <row r="4">
@@ -603,28 +603,28 @@
         <v>10.8</v>
       </c>
       <c r="E4" t="n">
-        <v>29.2</v>
+        <v>29.64444444444445</v>
       </c>
       <c r="F4" t="n">
-        <v>18.4</v>
+        <v>18.84444444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>78.33333333333333</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>78.67399999999999</v>
+        <v>77.03400000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>70.78333333333335</v>
+        <v>69.62777777777778</v>
       </c>
       <c r="J4" t="n">
-        <v>32.6</v>
+        <v>31.57444444444444</v>
       </c>
       <c r="K4" t="n">
-        <v>170.9463333333333</v>
+        <v>166.4468888888889</v>
       </c>
       <c r="L4" t="n">
-        <v>9332.671666666667</v>
+        <v>8970.806666666665</v>
       </c>
     </row>
     <row r="5">
@@ -697,22 +697,22 @@
         <v>18.93333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>82.11666666666666</v>
+        <v>80.5</v>
       </c>
       <c r="H6" t="n">
-        <v>82.31166666666667</v>
+        <v>80.71300000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>74.03083333333332</v>
+        <v>72.27549999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>33.74266666666667</v>
+        <v>33.0435</v>
       </c>
       <c r="K6" t="n">
-        <v>162.8485</v>
+        <v>162.7735</v>
       </c>
       <c r="L6" t="n">
-        <v>9392.641333333333</v>
+        <v>9212.772500000001</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.56666666666667</v>
+        <v>11.6</v>
       </c>
       <c r="E7" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F7" t="n">
-        <v>18.56666666666667</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>80.10000000000001</v>
+        <v>79.86666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>80.37249999999999</v>
+        <v>80.14866666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>72.96883333333332</v>
+        <v>72.81733333333331</v>
       </c>
       <c r="J7" t="n">
-        <v>32.62766666666667</v>
+        <v>32.58000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>162.7905</v>
+        <v>164.188</v>
       </c>
       <c r="L7" t="n">
-        <v>9239.347166666666</v>
+        <v>9241.831333333334</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.5</v>
+        <v>11.36666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>30.5</v>
+        <v>30.46666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="G8" t="n">
         <v>75.66666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>76.06916666666666</v>
+        <v>76.08033333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>68.60916666666667</v>
+        <v>69.0005</v>
       </c>
       <c r="J8" t="n">
-        <v>31.415</v>
+        <v>31.45133333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>172.7766666666666</v>
+        <v>174.8841666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>9302.633333333333</v>
+        <v>9320.332166666667</v>
       </c>
     </row>
     <row r="9">
@@ -917,22 +917,22 @@
         <v>18.13333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>59.81666666666666</v>
+        <v>56.26666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>60.24566666666666</v>
+        <v>56.69666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>54.088</v>
+        <v>51.17599999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>23.88783333333333</v>
+        <v>22.646</v>
       </c>
       <c r="K11" t="n">
-        <v>158.565</v>
+        <v>176.0066666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>6892.387333333333</v>
+        <v>6578.642</v>
       </c>
     </row>
     <row r="12">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11.01111111111111</v>
+        <v>10.97777777777778</v>
       </c>
       <c r="E13" t="n">
-        <v>30.7</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F13" t="n">
         <v>19.68888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>57.18888888888889</v>
+        <v>58.68888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>57.52255555555555</v>
+        <v>58.95355555555555</v>
       </c>
       <c r="I13" t="n">
-        <v>53.15466666666666</v>
+        <v>53.88733333333332</v>
       </c>
       <c r="J13" t="n">
-        <v>22.34783333333333</v>
+        <v>23.00666666666666</v>
       </c>
       <c r="K13" t="n">
-        <v>157.2438888888889</v>
+        <v>158.7895555555556</v>
       </c>
       <c r="L13" t="n">
-        <v>6196.159222222222</v>
+        <v>6388.380888888889</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.44444444444444</v>
+        <v>12.31111111111111</v>
       </c>
       <c r="E14" t="n">
-        <v>31.16666666666667</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>18.72222222222222</v>
+        <v>18.75555555555556</v>
       </c>
       <c r="G14" t="n">
-        <v>54.66666666666666</v>
+        <v>56.4</v>
       </c>
       <c r="H14" t="n">
-        <v>55.12833333333333</v>
+        <v>56.906</v>
       </c>
       <c r="I14" t="n">
-        <v>49.66138888888889</v>
+        <v>50.70688888888889</v>
       </c>
       <c r="J14" t="n">
-        <v>21.77</v>
+        <v>22.63733333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5855555555555</v>
+        <v>171.7182222222222</v>
       </c>
       <c r="L14" t="n">
-        <v>6133.0575</v>
+        <v>6441.018666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1131,28 +1131,28 @@
         <v>11.76666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>30.63333333333334</v>
+        <v>30.74444444444444</v>
       </c>
       <c r="F16" t="n">
-        <v>18.86666666666667</v>
+        <v>18.97777777777778</v>
       </c>
       <c r="G16" t="n">
-        <v>69</v>
+        <v>70.27777777777777</v>
       </c>
       <c r="H16" t="n">
-        <v>69.37683333333332</v>
+        <v>70.69961111111111</v>
       </c>
       <c r="I16" t="n">
-        <v>63.18066666666666</v>
+        <v>64.52177777777777</v>
       </c>
       <c r="J16" t="n">
-        <v>27.82566666666667</v>
+        <v>28.19344444444444</v>
       </c>
       <c r="K16" t="n">
-        <v>162.722</v>
+        <v>165.8025555555555</v>
       </c>
       <c r="L16" t="n">
-        <v>8159.928666666667</v>
+        <v>8220.671444444444</v>
       </c>
     </row>
     <row r="17">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.64444444444444</v>
+        <v>11.76666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>30.35555555555555</v>
+        <v>30.7</v>
       </c>
       <c r="F18" t="n">
-        <v>18.71111111111111</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>57.17777777777778</v>
+        <v>57.26666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>57.26488888888889</v>
+        <v>57.39116666666666</v>
       </c>
       <c r="I18" t="n">
-        <v>49.69622222222222</v>
+        <v>50.45666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>22.936</v>
+        <v>22.84183333333333</v>
       </c>
       <c r="K18" t="n">
-        <v>165.3482222222222</v>
+        <v>163.2651666666667</v>
       </c>
       <c r="L18" t="n">
-        <v>7058.815333333335</v>
+        <v>6965.030833333333</v>
       </c>
     </row>
     <row r="19">
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.08888888888889</v>
+        <v>10.2</v>
       </c>
       <c r="E22" t="n">
-        <v>30.44444444444445</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>20.35555555555555</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>105</v>
+        <v>102.4166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>105.3066666666667</v>
+        <v>102.7733333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>97.72955555555556</v>
+        <v>95.81066666666668</v>
       </c>
       <c r="J22" t="n">
-        <v>44.68177777777779</v>
+        <v>43.43066666666667</v>
       </c>
       <c r="K22" t="n">
-        <v>163.1522222222222</v>
+        <v>164.6141666666667</v>
       </c>
       <c r="L22" t="n">
-        <v>12606.23688888889</v>
+        <v>12267.88216666667</v>
       </c>
     </row>
     <row r="23">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="E24" t="n">
-        <v>30.16666666666667</v>
+        <v>31.5</v>
       </c>
       <c r="F24" t="n">
-        <v>19.66666666666667</v>
+        <v>20.9</v>
       </c>
       <c r="G24" t="n">
-        <v>116.3333333333333</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>116.6191666666667</v>
+        <v>118.771</v>
       </c>
       <c r="I24" t="n">
-        <v>104.3808333333333</v>
+        <v>104.7885</v>
       </c>
       <c r="J24" t="n">
-        <v>48.44083333333333</v>
+        <v>49.96216666666666</v>
       </c>
       <c r="K24" t="n">
-        <v>158.9141666666667</v>
+        <v>160.4406666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>13700.91416666667</v>
+        <v>14075.31883333333</v>
       </c>
     </row>
     <row r="25">
@@ -1659,28 +1659,28 @@
         <v>10.16666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>30.5</v>
+        <v>30.56666666666667</v>
       </c>
       <c r="F28" t="n">
-        <v>20.33333333333333</v>
+        <v>20.4</v>
       </c>
       <c r="G28" t="n">
-        <v>92.75</v>
+        <v>95.63333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>93.08750000000002</v>
+        <v>95.94350000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>80.98833333333333</v>
+        <v>84.30816666666668</v>
       </c>
       <c r="J28" t="n">
-        <v>38.42250000000001</v>
+        <v>39.47600000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>164.1258333333333</v>
+        <v>165.5626666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>10909.15416666667</v>
+        <v>11256.62216666667</v>
       </c>
     </row>
     <row r="29">
@@ -1753,22 +1753,22 @@
         <v>19.4</v>
       </c>
       <c r="G30" t="n">
-        <v>88.13333333333333</v>
+        <v>84.96666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>88.39866666666667</v>
+        <v>85.21283333333334</v>
       </c>
       <c r="I30" t="n">
-        <v>77.73066666666666</v>
+        <v>74.23733333333332</v>
       </c>
       <c r="J30" t="n">
-        <v>35.79483333333334</v>
+        <v>34.28233333333333</v>
       </c>
       <c r="K30" t="n">
-        <v>152.7836666666667</v>
+        <v>155.7995</v>
       </c>
       <c r="L30" t="n">
-        <v>10149.99116666667</v>
+        <v>9703.857833333333</v>
       </c>
     </row>
     <row r="31">
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9.933333333333334</v>
+        <v>9.866666666666667</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>20.06666666666667</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>100.1166666666667</v>
+        <v>100.45</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3256666666667</v>
+        <v>100.6725</v>
       </c>
       <c r="I31" t="n">
-        <v>90.11133333333333</v>
+        <v>89.99416666666666</v>
       </c>
       <c r="J31" t="n">
-        <v>41.62916666666667</v>
+        <v>41.51116666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>167.4803333333333</v>
+        <v>164.8906666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>11729.5055</v>
+        <v>11646.63833333333</v>
       </c>
     </row>
     <row r="32">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E32" t="n">
-        <v>30.8</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>20.1</v>
+        <v>20.13333333333334</v>
       </c>
       <c r="G32" t="n">
-        <v>85.76666666666667</v>
+        <v>85.66666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>86.18549999999999</v>
+        <v>86.074</v>
       </c>
       <c r="I32" t="n">
-        <v>79.08666666666666</v>
+        <v>79.34400000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>35.80333333333333</v>
+        <v>35.74666666666666</v>
       </c>
       <c r="K32" t="n">
-        <v>176.231</v>
+        <v>178.01</v>
       </c>
       <c r="L32" t="n">
-        <v>10205.71116666667</v>
+        <v>10191.37066666667</v>
       </c>
     </row>
     <row r="33">
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.72222222222222</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="E33" t="n">
-        <v>30.55555555555556</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F33" t="n">
-        <v>19.83333333333333</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="G33" t="n">
-        <v>92.55555555555556</v>
+        <v>91.16666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>92.68666666666667</v>
+        <v>91.35416666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>82.45999999999999</v>
+        <v>82.10555555555555</v>
       </c>
       <c r="J33" t="n">
-        <v>38.12944444444445</v>
+        <v>37.25694444444445</v>
       </c>
       <c r="K33" t="n">
-        <v>166.6861111111111</v>
+        <v>156.8086111111111</v>
       </c>
       <c r="L33" t="n">
-        <v>10892.55611111111</v>
+        <v>10455.46388888889</v>
       </c>
     </row>
     <row r="34">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.73333333333333</v>
+        <v>10.8</v>
       </c>
       <c r="E34" t="n">
-        <v>30.86666666666666</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>20.13333333333333</v>
+        <v>20.03333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>95.03333333333335</v>
+        <v>94.16666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>95.46516666666668</v>
+        <v>94.58183333333334</v>
       </c>
       <c r="I34" t="n">
-        <v>82.10016666666667</v>
+        <v>81.72516666666667</v>
       </c>
       <c r="J34" t="n">
-        <v>38.67933333333333</v>
+        <v>38.33233333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>149.6791666666667</v>
+        <v>150.8651666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>10704.62233333333</v>
+        <v>10608.5025</v>
       </c>
     </row>
     <row r="35">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11.13333333333333</v>
+        <v>11.24444444444445</v>
       </c>
       <c r="E35" t="n">
-        <v>30.8</v>
+        <v>30.57777777777778</v>
       </c>
       <c r="F35" t="n">
-        <v>19.66666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>76.36666666666666</v>
+        <v>83.25555555555555</v>
       </c>
       <c r="H35" t="n">
-        <v>76.774</v>
+        <v>83.59288888888888</v>
       </c>
       <c r="I35" t="n">
-        <v>65.619</v>
+        <v>71.71177777777778</v>
       </c>
       <c r="J35" t="n">
-        <v>30.878</v>
+        <v>33.78244444444444</v>
       </c>
       <c r="K35" t="n">
-        <v>151.6656666666667</v>
+        <v>153.9723333333334</v>
       </c>
       <c r="L35" t="n">
-        <v>9110.279666666667</v>
+        <v>9882.199666666667</v>
       </c>
     </row>
     <row r="36">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.57777777777778</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>31.6</v>
+        <v>31.43333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>21.02222222222222</v>
+        <v>21.63333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>203.3111111111111</v>
+        <v>201.6166666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>202.168</v>
+        <v>200.4538333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>191.8786666666666</v>
+        <v>190.0153333333334</v>
       </c>
       <c r="J39" t="n">
-        <v>85.50666666666666</v>
+        <v>84.77916666666665</v>
       </c>
       <c r="K39" t="n">
-        <v>143.4562222222222</v>
+        <v>142.4715</v>
       </c>
       <c r="L39" t="n">
-        <v>22330.752</v>
+        <v>22304.24533333334</v>
       </c>
     </row>
     <row r="40">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E40" t="n">
-        <v>33.3</v>
+        <v>32.43333333333333</v>
       </c>
       <c r="F40" t="n">
-        <v>22.3</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>180.9166666666667</v>
+        <v>184.45</v>
       </c>
       <c r="H40" t="n">
-        <v>180.3098333333333</v>
+        <v>183.8313333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>169.656</v>
+        <v>172.5796666666667</v>
       </c>
       <c r="J40" t="n">
-        <v>71.43083333333334</v>
+        <v>73.24083333333334</v>
       </c>
       <c r="K40" t="n">
-        <v>138.0043333333333</v>
+        <v>138.0918333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>17800.18583333333</v>
+        <v>18479.82416666667</v>
       </c>
     </row>
     <row r="41">
@@ -2237,22 +2237,22 @@
         <v>20.08888888888889</v>
       </c>
       <c r="G41" t="n">
-        <v>164.2888888888889</v>
+        <v>167.15</v>
       </c>
       <c r="H41" t="n">
-        <v>164.4431111111111</v>
+        <v>167.2286666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>149.8682222222222</v>
+        <v>153.5757222222222</v>
       </c>
       <c r="J41" t="n">
-        <v>66.688</v>
+        <v>65.23661111111112</v>
       </c>
       <c r="K41" t="n">
-        <v>160.1435555555556</v>
+        <v>152.1657777777778</v>
       </c>
       <c r="L41" t="n">
-        <v>18101.88822222222</v>
+        <v>17169.45155555556</v>
       </c>
     </row>
     <row r="42">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>10.76666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>30.16666666666667</v>
+        <v>30.13333333333334</v>
       </c>
       <c r="F43" t="n">
-        <v>19.16666666666667</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>184.6777777777778</v>
+        <v>192.7333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>184.7160555555555</v>
+        <v>192.8383333333333</v>
       </c>
       <c r="I43" t="n">
-        <v>172.1781111111111</v>
+        <v>178.5888333333333</v>
       </c>
       <c r="J43" t="n">
-        <v>72.6761111111111</v>
+        <v>76.26733333333333</v>
       </c>
       <c r="K43" t="n">
-        <v>136.9151666666667</v>
+        <v>136.685</v>
       </c>
       <c r="L43" t="n">
-        <v>18375.86588888889</v>
+        <v>19258.72233333333</v>
       </c>
     </row>
     <row r="44">
@@ -2360,31 +2360,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11.53333333333333</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>32.13333333333333</v>
+        <v>32.46666666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>20.6</v>
+        <v>21.13333333333334</v>
       </c>
       <c r="G44" t="n">
-        <v>185.6833333333333</v>
+        <v>190.6333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>183.7705</v>
+        <v>188.717</v>
       </c>
       <c r="I44" t="n">
-        <v>170.2351666666667</v>
+        <v>175.2486666666667</v>
       </c>
       <c r="J44" t="n">
-        <v>75.246</v>
+        <v>77.50333333333334</v>
       </c>
       <c r="K44" t="n">
-        <v>138.7073333333333</v>
+        <v>139.3898333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>19364.12766666667</v>
+        <v>19894.96166666667</v>
       </c>
     </row>
     <row r="45">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8.266666666666667</v>
+        <v>8.6</v>
       </c>
       <c r="E45" t="n">
         <v>30.93333333333333</v>
       </c>
       <c r="F45" t="n">
-        <v>22.66666666666667</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>144.9666666666667</v>
+        <v>144.6888888888889</v>
       </c>
       <c r="H45" t="n">
-        <v>144.8406666666667</v>
+        <v>144.5423333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>132.835</v>
+        <v>132.3872222222222</v>
       </c>
       <c r="J45" t="n">
-        <v>56.00333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="K45" t="n">
-        <v>133.0826666666667</v>
+        <v>137.9854444444444</v>
       </c>
       <c r="L45" t="n">
-        <v>13991.36966666667</v>
+        <v>14144.708</v>
       </c>
     </row>
     <row r="46">
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.33333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>18.66666666666667</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="G48" t="n">
-        <v>161.5555555555555</v>
+        <v>168.25</v>
       </c>
       <c r="H48" t="n">
-        <v>161.7888888888889</v>
+        <v>168.4875</v>
       </c>
       <c r="I48" t="n">
-        <v>142.4522222222222</v>
+        <v>151.1908333333334</v>
       </c>
       <c r="J48" t="n">
-        <v>67.08111111111111</v>
+        <v>67.10583333333334</v>
       </c>
       <c r="K48" t="n">
-        <v>148.2038888888889</v>
+        <v>138.3283333333333</v>
       </c>
       <c r="L48" t="n">
-        <v>18267.37111111111</v>
+        <v>17854.01333333333</v>
       </c>
     </row>
     <row r="49">
@@ -2624,31 +2624,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.55555555555556</v>
+        <v>11.5</v>
       </c>
       <c r="E50" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F50" t="n">
-        <v>18.57777777777778</v>
+        <v>18.63333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>137.4222222222222</v>
+        <v>150.1166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>137.714</v>
+        <v>150.3356666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>125.7982222222222</v>
+        <v>135.9326666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>55.03399999999999</v>
+        <v>61.84733333333333</v>
       </c>
       <c r="K50" t="n">
-        <v>168.07</v>
+        <v>166.8758333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>14431.54244444445</v>
+        <v>16509.1255</v>
       </c>
     </row>
     <row r="51">
@@ -2759,28 +2759,28 @@
         <v>11.9</v>
       </c>
       <c r="E53" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n">
-        <v>19.1</v>
+        <v>18.1</v>
       </c>
       <c r="G53" t="n">
-        <v>166.1333333333333</v>
+        <v>167.05</v>
       </c>
       <c r="H53" t="n">
-        <v>166.5468888888889</v>
+        <v>167.413</v>
       </c>
       <c r="I53" t="n">
-        <v>153.1399444444444</v>
+        <v>154.3688333333334</v>
       </c>
       <c r="J53" t="n">
-        <v>64.79244444444446</v>
+        <v>66.22799999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>114.2071111111111</v>
+        <v>114.6476666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>17474.01838888889</v>
+        <v>18196.44783333334</v>
       </c>
     </row>
     <row r="54">
@@ -2891,28 +2891,28 @@
         <v>10.13333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>33.76666666666667</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="F56" t="n">
-        <v>23.63333333333334</v>
+        <v>23.6</v>
       </c>
       <c r="G56" t="n">
-        <v>208.1666666666667</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>203.4086666666666</v>
+        <v>200.8993333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>184.9181666666667</v>
+        <v>182.7273333333333</v>
       </c>
       <c r="J56" t="n">
-        <v>84.97566666666665</v>
+        <v>83.46333333333332</v>
       </c>
       <c r="K56" t="n">
-        <v>130.2246666666666</v>
+        <v>128.196</v>
       </c>
       <c r="L56" t="n">
-        <v>20030.24833333333</v>
+        <v>19597.47133333333</v>
       </c>
     </row>
     <row r="57">
@@ -3023,28 +3023,28 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>29.2</v>
+        <v>29.42222222222222</v>
       </c>
       <c r="F59" t="n">
-        <v>19.2</v>
+        <v>19.42222222222222</v>
       </c>
       <c r="G59" t="n">
-        <v>175.5333333333333</v>
+        <v>175.4777777777778</v>
       </c>
       <c r="H59" t="n">
-        <v>175.838</v>
+        <v>175.8385555555556</v>
       </c>
       <c r="I59" t="n">
-        <v>158.9613333333333</v>
+        <v>161.0102222222222</v>
       </c>
       <c r="J59" t="n">
-        <v>66.967</v>
+        <v>66.747</v>
       </c>
       <c r="K59" t="n">
-        <v>111.031</v>
+        <v>109.4637777777778</v>
       </c>
       <c r="L59" t="n">
-        <v>15679.98833333333</v>
+        <v>15475.89277777778</v>
       </c>
     </row>
     <row r="60">
@@ -3067,28 +3067,28 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>28.8</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="F60" t="n">
-        <v>18.8</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="G60" t="n">
-        <v>195.8222222222222</v>
+        <v>194.7666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>193.2233333333334</v>
+        <v>192.1516666666666</v>
       </c>
       <c r="I60" t="n">
-        <v>169.9215555555556</v>
+        <v>168.0301666666667</v>
       </c>
       <c r="J60" t="n">
-        <v>77.80244444444445</v>
+        <v>76.99133333333334</v>
       </c>
       <c r="K60" t="n">
-        <v>124.1117777777778</v>
+        <v>121.224</v>
       </c>
       <c r="L60" t="n">
-        <v>19018.72844444444</v>
+        <v>18551.19733333333</v>
       </c>
     </row>
     <row r="61">
@@ -3111,28 +3111,28 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>31.83333333333333</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="F61" t="n">
-        <v>21.83333333333333</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G61" t="n">
-        <v>187.5</v>
+        <v>187.65</v>
       </c>
       <c r="H61" t="n">
-        <v>187.575</v>
+        <v>187.0491666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>169.6358333333334</v>
+        <v>172.1726666666667</v>
       </c>
       <c r="J61" t="n">
-        <v>75.82916666666667</v>
+        <v>77.06150000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>133.3033333333333</v>
+        <v>132.0563333333333</v>
       </c>
       <c r="L61" t="n">
-        <v>18171.0675</v>
+        <v>17953.9655</v>
       </c>
     </row>
     <row r="62">
@@ -3287,28 +3287,28 @@
         <v>10.26666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>31.95555555555556</v>
+        <v>31.9</v>
       </c>
       <c r="F65" t="n">
-        <v>21.68888888888889</v>
+        <v>21.63333333333334</v>
       </c>
       <c r="G65" t="n">
-        <v>182.9555555555555</v>
+        <v>185.15</v>
       </c>
       <c r="H65" t="n">
-        <v>179.6317777777778</v>
+        <v>181.8023333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>156.0602222222222</v>
+        <v>157.4671666666667</v>
       </c>
       <c r="J65" t="n">
-        <v>72.65844444444444</v>
+        <v>73.20566666666667</v>
       </c>
       <c r="K65" t="n">
-        <v>134.2611111111111</v>
+        <v>130.8016666666666</v>
       </c>
       <c r="L65" t="n">
-        <v>17220.87555555555</v>
+        <v>17313.23833333333</v>
       </c>
     </row>
     <row r="66">
@@ -3337,22 +3337,22 @@
         <v>20.33333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>181.8055555555555</v>
+        <v>178.8333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>182.1808333333333</v>
+        <v>179.1908333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>153.9086111111111</v>
+        <v>152.6141666666666</v>
       </c>
       <c r="J66" t="n">
-        <v>70.54527777777778</v>
+        <v>68.94916666666667</v>
       </c>
       <c r="K66" t="n">
-        <v>121.9452777777778</v>
+        <v>117.4841666666667</v>
       </c>
       <c r="L66" t="n">
-        <v>17200.12944444445</v>
+        <v>16586.2925</v>
       </c>
     </row>
     <row r="67">
@@ -3463,28 +3463,28 @@
         <v>10.4</v>
       </c>
       <c r="E69" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="F69" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="G69" t="n">
-        <v>176.0722222222222</v>
+        <v>175.1</v>
       </c>
       <c r="H69" t="n">
-        <v>176.2907777777778</v>
+        <v>175.2615</v>
       </c>
       <c r="I69" t="n">
-        <v>157.4107222222222</v>
+        <v>158.0936666666667</v>
       </c>
       <c r="J69" t="n">
-        <v>67.30616666666667</v>
+        <v>67.2435</v>
       </c>
       <c r="K69" t="n">
-        <v>117.4805</v>
+        <v>117.4796666666667</v>
       </c>
       <c r="L69" t="n">
-        <v>15843.12883333333</v>
+        <v>15773.64083333333</v>
       </c>
     </row>
     <row r="70">
@@ -3504,31 +3504,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.22222222222222</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>31.82222222222222</v>
+        <v>31.93333333333333</v>
       </c>
       <c r="F70" t="n">
-        <v>21.6</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="G70" t="n">
-        <v>180.6444444444445</v>
+        <v>181.0333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>180.1695555555555</v>
+        <v>180.5231666666666</v>
       </c>
       <c r="I70" t="n">
-        <v>153.2817777777778</v>
+        <v>154.8748333333333</v>
       </c>
       <c r="J70" t="n">
-        <v>70.72866666666665</v>
+        <v>70.49866666666667</v>
       </c>
       <c r="K70" t="n">
-        <v>115.6713333333333</v>
+        <v>115.2646666666667</v>
       </c>
       <c r="L70" t="n">
-        <v>16579.83022222222</v>
+        <v>16438.19133333333</v>
       </c>
     </row>
     <row r="71">
@@ -3551,28 +3551,28 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>30.33333333333333</v>
+        <v>31.76666666666667</v>
       </c>
       <c r="F71" t="n">
-        <v>20.33333333333333</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="G71" t="n">
-        <v>180.4333333333333</v>
+        <v>182.5666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>180.6656666666667</v>
+        <v>181.756</v>
       </c>
       <c r="I71" t="n">
-        <v>155.4498333333333</v>
+        <v>158.362</v>
       </c>
       <c r="J71" t="n">
-        <v>69.15333333333332</v>
+        <v>71.57350000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>117.7941666666667</v>
+        <v>119.8245</v>
       </c>
       <c r="L71" t="n">
-        <v>16706.2505</v>
+        <v>17104.75683333333</v>
       </c>
     </row>
     <row r="72">
@@ -3592,31 +3592,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.16666666666667</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>29.66666666666667</v>
+        <v>29.73333333333333</v>
       </c>
       <c r="F72" t="n">
-        <v>19.5</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="G72" t="n">
-        <v>175.3833333333333</v>
+        <v>174.4666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>175.6638333333333</v>
+        <v>174.7585</v>
       </c>
       <c r="I72" t="n">
-        <v>150.7081666666667</v>
+        <v>150.7978333333333</v>
       </c>
       <c r="J72" t="n">
-        <v>66.331</v>
+        <v>66.03733333333334</v>
       </c>
       <c r="K72" t="n">
-        <v>107.3995</v>
+        <v>108.116</v>
       </c>
       <c r="L72" t="n">
-        <v>15342.123</v>
+        <v>15276.7295</v>
       </c>
     </row>
     <row r="73">
@@ -3636,31 +3636,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9.155555555555557</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="E73" t="n">
         <v>30.4</v>
       </c>
       <c r="F73" t="n">
-        <v>21.24444444444444</v>
+        <v>21.13333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>143.2666666666667</v>
+        <v>144.5166666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>143.5982222222222</v>
+        <v>144.8001666666667</v>
       </c>
       <c r="I73" t="n">
-        <v>129.2822222222222</v>
+        <v>129.1891666666667</v>
       </c>
       <c r="J73" t="n">
-        <v>53.38555555555556</v>
+        <v>53.90083333333334</v>
       </c>
       <c r="K73" t="n">
-        <v>127.3448888888889</v>
+        <v>127.4826666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>13163.44733333333</v>
+        <v>13220.12483333333</v>
       </c>
     </row>
     <row r="74">
@@ -3724,31 +3724,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10.1</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="E75" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>16.7</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="G75" t="n">
-        <v>128.2833333333333</v>
+        <v>132.2833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>128.5688333333333</v>
+        <v>132.5151666666667</v>
       </c>
       <c r="I75" t="n">
-        <v>117.8888333333333</v>
+        <v>121.8573333333333</v>
       </c>
       <c r="J75" t="n">
-        <v>46.98866666666667</v>
+        <v>48.60166666666667</v>
       </c>
       <c r="K75" t="n">
-        <v>100.5766666666667</v>
+        <v>99.2355</v>
       </c>
       <c r="L75" t="n">
-        <v>11326.10283333333</v>
+        <v>11461.109</v>
       </c>
     </row>
     <row r="76">
@@ -3768,31 +3768,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10.55555555555556</v>
+        <v>10.48888888888889</v>
       </c>
       <c r="E76" t="n">
-        <v>26.66666666666667</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="F76" t="n">
-        <v>16.11111111111111</v>
+        <v>16.84444444444444</v>
       </c>
       <c r="G76" t="n">
-        <v>99.80555555555556</v>
+        <v>110.2666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>99.96305555555556</v>
+        <v>110.4355555555555</v>
       </c>
       <c r="I76" t="n">
-        <v>91.01944444444445</v>
+        <v>101.5671111111111</v>
       </c>
       <c r="J76" t="n">
-        <v>34.19916666666666</v>
+        <v>37.70066666666667</v>
       </c>
       <c r="K76" t="n">
-        <v>99.96138888888889</v>
+        <v>95.49399999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>7596.720833333333</v>
+        <v>8186.059777777778</v>
       </c>
     </row>
     <row r="77">
@@ -3815,28 +3815,28 @@
         <v>10.63333333333333</v>
       </c>
       <c r="E77" t="n">
-        <v>29.94444444444444</v>
+        <v>30</v>
       </c>
       <c r="F77" t="n">
-        <v>19.31111111111111</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>114.9055555555556</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>114.8339444444445</v>
+        <v>114.9086666666667</v>
       </c>
       <c r="I77" t="n">
-        <v>103.7138333333333</v>
+        <v>103.5738333333333</v>
       </c>
       <c r="J77" t="n">
-        <v>38.87088888888889</v>
+        <v>39.28033333333334</v>
       </c>
       <c r="K77" t="n">
-        <v>102.4887777777778</v>
+        <v>104.4635</v>
       </c>
       <c r="L77" t="n">
-        <v>8312.745166666666</v>
+        <v>8583.036833333334</v>
       </c>
     </row>
     <row r="78">
@@ -3909,22 +3909,22 @@
         <v>18.53333333333333</v>
       </c>
       <c r="G79" t="n">
-        <v>125.65</v>
+        <v>127.0333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>125.8926666666667</v>
+        <v>127.2453333333333</v>
       </c>
       <c r="I79" t="n">
-        <v>114.609</v>
+        <v>115.6936666666667</v>
       </c>
       <c r="J79" t="n">
-        <v>42.95016666666667</v>
+        <v>43.76366666666667</v>
       </c>
       <c r="K79" t="n">
-        <v>98.70466666666665</v>
+        <v>99.64366666666666</v>
       </c>
       <c r="L79" t="n">
-        <v>9504.882333333333</v>
+        <v>9692.556333333334</v>
       </c>
     </row>
     <row r="80">
@@ -3953,22 +3953,22 @@
         <v>16.7</v>
       </c>
       <c r="G80" t="n">
-        <v>132.2666666666667</v>
+        <v>133.3666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>132.5933333333333</v>
+        <v>133.683</v>
       </c>
       <c r="I80" t="n">
-        <v>124.9096666666667</v>
+        <v>126.1001666666667</v>
       </c>
       <c r="J80" t="n">
-        <v>45.88216666666667</v>
+        <v>46.20316666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>88.38</v>
+        <v>87.73066666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>9922.765833333333</v>
+        <v>9957.5615</v>
       </c>
     </row>
     <row r="81">
@@ -3991,28 +3991,28 @@
         <v>10.96666666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>27.9</v>
+        <v>28.06666666666667</v>
       </c>
       <c r="F81" t="n">
-        <v>16.93333333333333</v>
+        <v>17.1</v>
       </c>
       <c r="G81" t="n">
-        <v>104.4333333333333</v>
+        <v>116.6</v>
       </c>
       <c r="H81" t="n">
-        <v>104.8756666666667</v>
+        <v>117.0331666666667</v>
       </c>
       <c r="I81" t="n">
-        <v>94.85000000000001</v>
+        <v>106.4758333333333</v>
       </c>
       <c r="J81" t="n">
-        <v>36.43383333333333</v>
+        <v>39.33383333333333</v>
       </c>
       <c r="K81" t="n">
-        <v>99.57466666666666</v>
+        <v>86.9055</v>
       </c>
       <c r="L81" t="n">
-        <v>8017.179166666666</v>
+        <v>8058.2</v>
       </c>
     </row>
     <row r="82">
@@ -4035,28 +4035,28 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>29.06666666666667</v>
+        <v>30.9</v>
       </c>
       <c r="F82" t="n">
-        <v>18.4</v>
+        <v>20.23333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>109.15</v>
+        <v>111.65</v>
       </c>
       <c r="H82" t="n">
-        <v>109.2813333333333</v>
+        <v>111.768</v>
       </c>
       <c r="I82" t="n">
-        <v>102.3198333333333</v>
+        <v>104.414</v>
       </c>
       <c r="J82" t="n">
-        <v>37.7985</v>
+        <v>39.02683333333334</v>
       </c>
       <c r="K82" t="n">
-        <v>93.61483333333332</v>
+        <v>91.70650000000001</v>
       </c>
       <c r="L82" t="n">
-        <v>8416.849833333334</v>
+        <v>8402.587333333333</v>
       </c>
     </row>
     <row r="83">
@@ -4211,28 +4211,28 @@
         <v>10.93333333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F86" t="n">
-        <v>16.36666666666667</v>
+        <v>16.76666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>123.9666666666667</v>
+        <v>125.7</v>
       </c>
       <c r="H86" t="n">
-        <v>124.3333333333333</v>
+        <v>126.0215</v>
       </c>
       <c r="I86" t="n">
-        <v>115.66</v>
+        <v>117.5661666666667</v>
       </c>
       <c r="J86" t="n">
-        <v>43.06816666666666</v>
+        <v>43.3305</v>
       </c>
       <c r="K86" t="n">
-        <v>96.673</v>
+        <v>93.78800000000001</v>
       </c>
       <c r="L86" t="n">
-        <v>10148.5215</v>
+        <v>9930.993833333334</v>
       </c>
     </row>
     <row r="87">
@@ -4255,28 +4255,28 @@
         <v>10.8</v>
       </c>
       <c r="E87" t="n">
-        <v>28.26666666666667</v>
+        <v>28.43333333333333</v>
       </c>
       <c r="F87" t="n">
-        <v>17.46666666666667</v>
+        <v>17.63333333333333</v>
       </c>
       <c r="G87" t="n">
-        <v>109.8</v>
+        <v>115.05</v>
       </c>
       <c r="H87" t="n">
-        <v>109.8222222222222</v>
+        <v>115.17</v>
       </c>
       <c r="I87" t="n">
-        <v>100.3517777777778</v>
+        <v>104.7865</v>
       </c>
       <c r="J87" t="n">
-        <v>38.93</v>
+        <v>40.18</v>
       </c>
       <c r="K87" t="n">
-        <v>121.1237777777778</v>
+        <v>113.9301666666667</v>
       </c>
       <c r="L87" t="n">
-        <v>9201.116444444444</v>
+        <v>9057.355333333333</v>
       </c>
     </row>
     <row r="88">
@@ -4387,28 +4387,28 @@
         <v>11.06666666666667</v>
       </c>
       <c r="E90" t="n">
-        <v>30.35555555555555</v>
+        <v>30.3</v>
       </c>
       <c r="F90" t="n">
-        <v>19.28888888888889</v>
+        <v>19.23333333333333</v>
       </c>
       <c r="G90" t="n">
-        <v>114.4222222222222</v>
+        <v>114.2833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>114.5795555555555</v>
+        <v>114.4956666666667</v>
       </c>
       <c r="I90" t="n">
-        <v>106.7482222222222</v>
+        <v>105.7601666666666</v>
       </c>
       <c r="J90" t="n">
-        <v>40.60377777777779</v>
+        <v>40.74016666666667</v>
       </c>
       <c r="K90" t="n">
-        <v>118.5615555555556</v>
+        <v>117.4501666666667</v>
       </c>
       <c r="L90" t="n">
-        <v>9691.003777777778</v>
+        <v>9730.3935</v>
       </c>
     </row>
     <row r="91">
@@ -4604,31 +4604,31 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.33333333333333</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="E95" t="n">
-        <v>31.6</v>
+        <v>31.86666666666666</v>
       </c>
       <c r="F95" t="n">
-        <v>21.26666666666667</v>
+        <v>21.7</v>
       </c>
       <c r="G95" t="n">
-        <v>113.5333333333333</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>111.8457777777778</v>
+        <v>115.8581666666667</v>
       </c>
       <c r="I95" t="n">
-        <v>104.5035555555556</v>
+        <v>107.0335</v>
       </c>
       <c r="J95" t="n">
-        <v>45.97277777777777</v>
+        <v>48.0785</v>
       </c>
       <c r="K95" t="n">
-        <v>149.5978888888889</v>
+        <v>152.9241666666667</v>
       </c>
       <c r="L95" t="n">
-        <v>11756.80222222222</v>
+        <v>12358.376</v>
       </c>
     </row>
     <row r="96">
@@ -4739,28 +4739,28 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E98" t="n">
-        <v>31.66666666666667</v>
+        <v>31.3</v>
       </c>
       <c r="F98" t="n">
-        <v>21</v>
+        <v>20.63333333333333</v>
       </c>
       <c r="G98" t="n">
-        <v>108.75</v>
+        <v>109.95</v>
       </c>
       <c r="H98" t="n">
-        <v>108.7091666666667</v>
+        <v>109.9665</v>
       </c>
       <c r="I98" t="n">
-        <v>98.48333333333333</v>
+        <v>100.2551666666667</v>
       </c>
       <c r="J98" t="n">
-        <v>44.20416666666667</v>
+        <v>44.84616666666667</v>
       </c>
       <c r="K98" t="n">
-        <v>137.2266666666667</v>
+        <v>137.9931666666667</v>
       </c>
       <c r="L98" t="n">
-        <v>11088.49833333333</v>
+        <v>11326.7255</v>
       </c>
     </row>
     <row r="99">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10.8</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="E99" t="n">
-        <v>30.46666666666667</v>
+        <v>30.43333333333333</v>
       </c>
       <c r="F99" t="n">
-        <v>19.66666666666667</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="G99" t="n">
-        <v>102.9666666666667</v>
+        <v>102.6166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>103.2103333333333</v>
+        <v>102.8413333333333</v>
       </c>
       <c r="I99" t="n">
-        <v>95.18433333333333</v>
+        <v>93.94933333333334</v>
       </c>
       <c r="J99" t="n">
-        <v>40.51516666666667</v>
+        <v>40.81016666666667</v>
       </c>
       <c r="K99" t="n">
-        <v>133.9053333333333</v>
+        <v>139.9143333333333</v>
       </c>
       <c r="L99" t="n">
-        <v>10148.74016666667</v>
+        <v>10337.1405</v>
       </c>
     </row>
     <row r="100">
@@ -4827,28 +4827,28 @@
         <v>10.8</v>
       </c>
       <c r="E100" t="n">
-        <v>32.8</v>
+        <v>31.73333333333333</v>
       </c>
       <c r="F100" t="n">
-        <v>22</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="G100" t="n">
-        <v>96.57777777777778</v>
+        <v>102.7333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>96.14088888888888</v>
+        <v>102.5053333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>88.21288888888888</v>
+        <v>94.682</v>
       </c>
       <c r="J100" t="n">
-        <v>38.44955555555556</v>
+        <v>41.10933333333333</v>
       </c>
       <c r="K100" t="n">
-        <v>141.2922222222222</v>
+        <v>139.3986666666667</v>
       </c>
       <c r="L100" t="n">
-        <v>9707.60311111111</v>
+        <v>10359.218</v>
       </c>
     </row>
     <row r="101">
@@ -4868,31 +4868,31 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10.93333333333333</v>
+        <v>10.96666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>30.3</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="F101" t="n">
-        <v>19.36666666666667</v>
+        <v>19.3</v>
       </c>
       <c r="G101" t="n">
-        <v>98.76666666666667</v>
+        <v>99.45</v>
       </c>
       <c r="H101" t="n">
-        <v>98.9165</v>
+        <v>99.58183333333334</v>
       </c>
       <c r="I101" t="n">
-        <v>90.0655</v>
+        <v>90.02666666666666</v>
       </c>
       <c r="J101" t="n">
-        <v>39.15266666666667</v>
+        <v>39.4785</v>
       </c>
       <c r="K101" t="n">
-        <v>133.9133333333333</v>
+        <v>133.9608333333333</v>
       </c>
       <c r="L101" t="n">
-        <v>10039.142</v>
+        <v>10134.0795</v>
       </c>
     </row>
     <row r="102">
@@ -5044,31 +5044,31 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>10.5</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="E105" t="n">
         <v>30.16666666666667</v>
       </c>
       <c r="F105" t="n">
-        <v>19.66666666666667</v>
+        <v>19.73333333333333</v>
       </c>
       <c r="G105" t="n">
-        <v>100.9722222222222</v>
+        <v>101.4833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>101.2488888888889</v>
+        <v>101.7296666666667</v>
       </c>
       <c r="I105" t="n">
-        <v>94.68166666666667</v>
+        <v>93.79883333333333</v>
       </c>
       <c r="J105" t="n">
-        <v>40.21777777777778</v>
+        <v>40.2165</v>
       </c>
       <c r="K105" t="n">
-        <v>135.8158333333333</v>
+        <v>135.8126666666667</v>
       </c>
       <c r="L105" t="n">
-        <v>10211.77861111111</v>
+        <v>10196.1155</v>
       </c>
     </row>
     <row r="106">
@@ -5132,31 +5132,31 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>10.66666666666667</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="E107" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F107" t="n">
-        <v>19.46666666666667</v>
+        <v>19.68888888888889</v>
       </c>
       <c r="G107" t="n">
-        <v>97.76666666666667</v>
+        <v>98.48888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>98.169</v>
+        <v>98.83955555555555</v>
       </c>
       <c r="I107" t="n">
-        <v>83.65033333333334</v>
+        <v>85.83088888888891</v>
       </c>
       <c r="J107" t="n">
-        <v>38.735</v>
+        <v>38.77333333333333</v>
       </c>
       <c r="K107" t="n">
-        <v>137.3636666666667</v>
+        <v>137.7808888888889</v>
       </c>
       <c r="L107" t="n">
-        <v>10007.93433333333</v>
+        <v>9977.551555555556</v>
       </c>
     </row>
     <row r="108">
@@ -5220,31 +5220,31 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8.933333333333334</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="E109" t="n">
         <v>30.13333333333334</v>
       </c>
       <c r="F109" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="G109" t="n">
-        <v>74.3</v>
+        <v>73.8</v>
       </c>
       <c r="H109" t="n">
-        <v>74.26949999999999</v>
+        <v>73.67733333333332</v>
       </c>
       <c r="I109" t="n">
-        <v>67.53516666666667</v>
+        <v>66.98199999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>28.3675</v>
+        <v>28.06333333333333</v>
       </c>
       <c r="K109" t="n">
-        <v>150.7893333333333</v>
+        <v>150.39</v>
       </c>
       <c r="L109" t="n">
-        <v>7362.093333333333</v>
+        <v>7265.493333333335</v>
       </c>
     </row>
   </sheetData>
